--- a/Code/Results/Cases/Case_2_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_59/res_line/loading_percent.xlsx
@@ -436,7 +436,7 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.2169480385347</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -444,7 +444,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.12018204701069</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -452,7 +452,7 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>26.78544435617555</v>
+        <v>26.78544435617554</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -460,7 +460,7 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>29.56389055882488</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>34.45877994146108</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -476,7 +476,7 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847225</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -492,7 +492,7 @@
         <v>10</v>
       </c>
       <c r="F12">
-        <v>39.67592721363783</v>
+        <v>39.67592721363781</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -500,7 +500,7 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>39.56266403258221</v>
+        <v>39.5626640325822</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -508,7 +508,7 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>39.19167637503955</v>
+        <v>39.19167637503946</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -516,7 +516,7 @@
         <v>13</v>
       </c>
       <c r="F15">
-        <v>38.9631930912341</v>
+        <v>38.96319309123408</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -524,7 +524,7 @@
         <v>14</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>37.63463543028811</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -548,7 +548,7 @@
         <v>17</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>36.15172494150062</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -556,7 +556,7 @@
         <v>18</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>36.89155697731403</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -564,7 +564,7 @@
         <v>19</v>
       </c>
       <c r="F21">
-        <v>39.30090300329764</v>
+        <v>39.30090300329766</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -580,7 +580,7 @@
         <v>21</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>40.0141422503843</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -588,7 +588,7 @@
         <v>22</v>
       </c>
       <c r="F24">
-        <v>36.85121910575425</v>
+        <v>36.85121910575429</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -596,7 +596,7 @@
         <v>23</v>
       </c>
       <c r="F25">
-        <v>33.19272459126713</v>
+        <v>33.19272459126709</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_59/res_line/loading_percent.xlsx
@@ -436,7 +436,7 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>26.21694803853472</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -444,7 +444,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <v>26.12018204701069</v>
+        <v>26.12018204701068</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -452,7 +452,7 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>26.78544435617554</v>
+        <v>26.78544435617555</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -460,7 +460,7 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>29.56389055882488</v>
+        <v>29.56389055882486</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -468,7 +468,7 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>34.45877994146108</v>
+        <v>34.4587799414611</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -476,7 +476,7 @@
         <v>8</v>
       </c>
       <c r="F10">
-        <v>37.72874519847225</v>
+        <v>37.72874519847221</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -492,7 +492,7 @@
         <v>10</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>39.67592721363783</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -500,7 +500,7 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>39.56266403258221</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -508,7 +508,7 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503955</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -516,7 +516,7 @@
         <v>13</v>
       </c>
       <c r="F15">
-        <v>38.96319309123408</v>
+        <v>38.9631930912341</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -524,7 +524,7 @@
         <v>14</v>
       </c>
       <c r="F16">
-        <v>37.63463543028811</v>
+        <v>37.6346354302881</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -548,7 +548,7 @@
         <v>17</v>
       </c>
       <c r="F19">
-        <v>36.15172494150062</v>
+        <v>36.15172494150058</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -556,7 +556,7 @@
         <v>18</v>
       </c>
       <c r="F20">
-        <v>36.89155697731403</v>
+        <v>36.89155697731401</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -564,7 +564,7 @@
         <v>19</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>39.30090300329764</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -580,7 +580,7 @@
         <v>21</v>
       </c>
       <c r="F23">
-        <v>40.0141422503843</v>
+        <v>40.01414225038425</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -588,7 +588,7 @@
         <v>22</v>
       </c>
       <c r="F24">
-        <v>36.85121910575429</v>
+        <v>36.85121910575425</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -596,7 +596,7 @@
         <v>23</v>
       </c>
       <c r="F25">
-        <v>33.19272459126709</v>
+        <v>33.19272459126713</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_59/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,7 +418,7 @@
         <v>30.27884324296193</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -423,7 +426,7 @@
         <v>28.1630198432674</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -431,7 +434,7 @@
         <v>26.79314218379239</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -439,7 +442,7 @@
         <v>26.21694803853472</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -447,7 +450,7 @@
         <v>26.12018204701068</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -455,7 +458,7 @@
         <v>26.78544435617555</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -463,7 +466,7 @@
         <v>29.56389055882486</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -471,7 +474,7 @@
         <v>34.4587799414611</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -479,7 +482,7 @@
         <v>37.72874519847221</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -487,7 +490,7 @@
         <v>39.14805722232859</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -495,7 +498,7 @@
         <v>39.67592721363783</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -503,7 +506,7 @@
         <v>39.56266403258221</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -511,7 +514,7 @@
         <v>39.19167637503955</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -519,7 +522,7 @@
         <v>38.9631930912341</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_2_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_59/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,197 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
+      </c>
+      <c r="B2">
+        <v>23.16657264947557</v>
+      </c>
+      <c r="C2">
+        <v>16.56748291973381</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>10.39820980283313</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="G2">
+        <v>2.049054838095468</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>19.05681616517008</v>
+      </c>
+      <c r="N2">
+        <v>11.61513054257841</v>
+      </c>
+      <c r="O2">
+        <v>23.93296748500948</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>21.50133360780491</v>
+      </c>
+      <c r="C3">
+        <v>15.39723650400193</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>9.812879486154637</v>
+      </c>
       <c r="F3">
-        <v>28.1630198432674</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>28.16301984326747</v>
+      </c>
+      <c r="G3">
+        <v>2.060034893413459</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>17.71223482092392</v>
+      </c>
+      <c r="N3">
+        <v>11.90502843424683</v>
+      </c>
+      <c r="O3">
+        <v>22.88564573472557</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>20.42789189279361</v>
+      </c>
+      <c r="C4">
+        <v>14.64363511670216</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>9.44868352947468</v>
+      </c>
       <c r="F4">
-        <v>26.79314218379239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>26.79314218379242</v>
+      </c>
+      <c r="G4">
+        <v>2.066905705781301</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>16.84694215555414</v>
+      </c>
+      <c r="N4">
+        <v>12.08605099546322</v>
+      </c>
+      <c r="O4">
+        <v>22.25507775362325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>19.97740846326895</v>
+      </c>
+      <c r="C5">
+        <v>14.32754610532533</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>9.299163585208989</v>
+      </c>
       <c r="F5">
         <v>26.21694803853472</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="G5">
+        <v>2.0697411820248</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>16.48414495950777</v>
+      </c>
+      <c r="N5">
+        <v>12.16061600508387</v>
+      </c>
+      <c r="O5">
+        <v>22.0013854511164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>19.90181165761741</v>
+      </c>
+      <c r="C6">
+        <v>14.2745119817697</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>9.274272737281052</v>
+      </c>
       <c r="F6">
         <v>26.12018204701068</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="G6">
+        <v>2.070214244930865</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>16.42328226584032</v>
+      </c>
+      <c r="N6">
+        <v>12.17304666339307</v>
+      </c>
+      <c r="O6">
+        <v>21.95946191842106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>20.42186963342392</v>
+      </c>
+      <c r="C7">
+        <v>14.63940884996982</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>9.446671372757171</v>
+      </c>
       <c r="F7">
-        <v>26.78544435617555</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>26.78544435617551</v>
+      </c>
+      <c r="G7">
+        <v>2.066943798071839</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>16.84209082656685</v>
+      </c>
+      <c r="N7">
+        <v>12.0870533305436</v>
+      </c>
+      <c r="O7">
+        <v>22.2516429375882</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>22.60283571854958</v>
+      </c>
+      <c r="C8">
+        <v>16.17115113320992</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>10.19743186852766</v>
+      </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="G8">
+        <v>2.052815952950273</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>18.60132323358296</v>
+      </c>
+      <c r="N8">
+        <v>11.71448152261562</v>
+      </c>
+      <c r="O8">
+        <v>23.56932232481838</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>26.48652224190308</v>
+      </c>
+      <c r="C9">
+        <v>18.90529051703368</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>11.6293448374675</v>
+      </c>
       <c r="F9">
-        <v>34.4587799414611</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>34.45877994148619</v>
+      </c>
+      <c r="G9">
+        <v>2.02597768584095</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>21.74591824306657</v>
+      </c>
+      <c r="N9">
+        <v>11.00626099864867</v>
+      </c>
+      <c r="O9">
+        <v>26.24939858657738</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>29.11768642794307</v>
+      </c>
+      <c r="C10">
+        <v>20.76316895879153</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>12.79659306923172</v>
+      </c>
       <c r="F10">
-        <v>37.72874519847221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>37.72874519847222</v>
+      </c>
+      <c r="G10">
+        <v>2.006539257742868</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>23.88558004512232</v>
+      </c>
+      <c r="N10">
+        <v>10.49753867920196</v>
+      </c>
+      <c r="O10">
+        <v>28.27803713319748</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>30.2709020915369</v>
+      </c>
+      <c r="C11">
+        <v>21.57907551860433</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>13.33372175002766</v>
+      </c>
       <c r="F11">
         <v>39.14805722232859</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="G11">
+        <v>1.997691719842631</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>24.82588912921721</v>
+      </c>
+      <c r="N11">
+        <v>10.26828948099033</v>
+      </c>
+      <c r="O11">
+        <v>29.21576915052108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>30.70173768177466</v>
+      </c>
+      <c r="C12">
+        <v>21.88416753346366</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>13.53515725156509</v>
+      </c>
       <c r="F12">
-        <v>39.67592721363783</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>39.67592721363781</v>
+      </c>
+      <c r="G12">
+        <v>1.994334290388292</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>25.17759388663069</v>
+      </c>
+      <c r="N12">
+        <v>10.18177673300237</v>
+      </c>
+      <c r="O12">
+        <v>29.57329593620682</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>30.60920287291098</v>
+      </c>
+      <c r="C13">
+        <v>21.81862700667561</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>13.4918573951013</v>
+      </c>
       <c r="F13">
-        <v>39.56266403258221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>39.5626640325822</v>
+      </c>
+      <c r="G13">
+        <v>1.995057798412682</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>25.10203568723742</v>
+      </c>
+      <c r="N13">
+        <v>10.20039556101018</v>
+      </c>
+      <c r="O13">
+        <v>29.49618232279423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>30.30646204580014</v>
+      </c>
+      <c r="C14">
+        <v>21.60425119201279</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>13.35033173467265</v>
+      </c>
       <c r="F14">
-        <v>39.19167637503955</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>39.19167637503946</v>
+      </c>
+      <c r="G14">
+        <v>1.997415683405553</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>24.85490929906631</v>
+      </c>
+      <c r="N14">
+        <v>10.26116605870571</v>
+      </c>
+      <c r="O14">
+        <v>29.24513236957938</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>30.12027468826458</v>
+      </c>
+      <c r="C15">
+        <v>21.47244596197042</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>13.26339563919687</v>
+      </c>
       <c r="F15">
-        <v>38.9631930912341</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>38.96319309154517</v>
+      </c>
+      <c r="G15">
+        <v>1.998858831845815</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>24.70298036645499</v>
+      </c>
+      <c r="N15">
+        <v>10.29842852194543</v>
+      </c>
+      <c r="O15">
+        <v>29.09168374079108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>29.04147638781392</v>
+      </c>
+      <c r="C16">
+        <v>20.70928628424653</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>12.76120106616503</v>
+      </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>2.007116844582906</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>23.82349523353746</v>
+      </c>
+      <c r="N16">
+        <v>10.51256290540488</v>
+      </c>
+      <c r="O16">
+        <v>28.21707567581269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>28.36875660048242</v>
+      </c>
+      <c r="C17">
+        <v>20.23384271851465</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>12.44934174140848</v>
+      </c>
       <c r="F17">
-        <v>36.8022877826839</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>36.80228778268393</v>
+      </c>
+      <c r="G17">
+        <v>2.012177379264856</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>23.2757533383366</v>
+      </c>
+      <c r="N17">
+        <v>10.64447004324473</v>
+      </c>
+      <c r="O17">
+        <v>27.68451431445006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>27.9776829584422</v>
+      </c>
+      <c r="C18">
+        <v>19.95760445973479</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>12.26850059644297</v>
+      </c>
       <c r="F18">
-        <v>36.31710943239624</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>36.31710943239623</v>
+      </c>
+      <c r="G18">
+        <v>2.015088034932516</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>22.95757177507553</v>
+      </c>
+      <c r="N18">
+        <v>10.72054405533914</v>
+      </c>
+      <c r="O18">
+        <v>27.37957726028734</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>27.84454856258612</v>
+      </c>
+      <c r="C19">
+        <v>19.86358881708002</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>12.2070116741128</v>
+      </c>
       <c r="F19">
-        <v>36.15172494150058</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>36.15172494150063</v>
+      </c>
+      <c r="G19">
+        <v>2.016073706439165</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>22.84929179020239</v>
+      </c>
+      <c r="N19">
+        <v>10.74633714868465</v>
+      </c>
+      <c r="O19">
+        <v>27.27656066341663</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>28.44079466484754</v>
+      </c>
+      <c r="C20">
+        <v>20.28473951119088</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>12.48268990962232</v>
+      </c>
       <c r="F20">
-        <v>36.89155697731401</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>36.891556977314</v>
+      </c>
+      <c r="G20">
+        <v>2.011638722878019</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>23.33438326097484</v>
+      </c>
+      <c r="N20">
+        <v>10.63040727529928</v>
+      </c>
+      <c r="O20">
+        <v>27.74106204273011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>30.39553979504526</v>
+      </c>
+      <c r="C21">
+        <v>21.66732082244066</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>13.39195233242063</v>
+      </c>
       <c r="F21">
-        <v>39.30090300329764</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>39.30090300329766</v>
+      </c>
+      <c r="G21">
+        <v>1.996723362437588</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>24.92761160727798</v>
+      </c>
+      <c r="N21">
+        <v>10.24330821158409</v>
+      </c>
+      <c r="O21">
+        <v>29.3188030580172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>31.6391505350846</v>
+      </c>
+      <c r="C22">
+        <v>22.54852684547872</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>13.97490990652706</v>
+      </c>
       <c r="F22">
-        <v>40.81974568026789</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>40.81974568026791</v>
+      </c>
+      <c r="G22">
+        <v>1.986930486222931</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>25.94362496193759</v>
+      </c>
+      <c r="N22">
+        <v>9.992064511061303</v>
+      </c>
+      <c r="O22">
+        <v>30.50038182226209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>30.97836069039513</v>
+      </c>
+      <c r="C23">
+        <v>22.08013667725498</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>13.66471423616698</v>
+      </c>
       <c r="F23">
         <v>40.01414225038425</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>1.992163590977975</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>25.40352989330172</v>
+      </c>
+      <c r="N23">
+        <v>10.1259984058594</v>
+      </c>
+      <c r="O23">
+        <v>29.83914627835152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>28.40823973701105</v>
+      </c>
+      <c r="C24">
+        <v>20.26173812668694</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>12.46761804630485</v>
+      </c>
       <c r="F24">
-        <v>36.85121910575425</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>36.85121910575439</v>
+      </c>
+      <c r="G24">
+        <v>2.011882244956111</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>23.30788690944238</v>
+      </c>
+      <c r="N24">
+        <v>10.63676430756825</v>
+      </c>
+      <c r="O24">
+        <v>27.71549297383816</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>25.47627915556333</v>
+      </c>
+      <c r="C25">
+        <v>18.19319799505264</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>11.24643217117019</v>
+      </c>
       <c r="F25">
-        <v>33.19272459126713</v>
+        <v>33.19272459126715</v>
+      </c>
+      <c r="G25">
+        <v>2.033169198962896</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>20.92641552641249</v>
+      </c>
+      <c r="N25">
+        <v>11.19567947934934</v>
+      </c>
+      <c r="O25">
+        <v>25.51424533524507</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_59/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.16657264947557</v>
+        <v>15.04939158417173</v>
       </c>
       <c r="C2">
-        <v>16.56748291973381</v>
+        <v>6.983186947876001</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.39820980283313</v>
+        <v>5.714060140096271</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>34.93891391038964</v>
       </c>
       <c r="G2">
-        <v>2.049054838095468</v>
+        <v>2.152625519862526</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>24.16736410810061</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.640416265735243</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>12.66488283339246</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.780546037165508</v>
       </c>
       <c r="M2">
-        <v>19.05681616517008</v>
+        <v>11.24314918551132</v>
       </c>
       <c r="N2">
-        <v>11.61513054257841</v>
+        <v>16.50467166290981</v>
       </c>
       <c r="O2">
-        <v>23.93296748500948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.50133360780491</v>
+        <v>14.27054352195184</v>
       </c>
       <c r="C3">
-        <v>15.39723650400193</v>
+        <v>6.48205117197317</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.812879486154637</v>
+        <v>5.671280349715503</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>34.27720161640951</v>
       </c>
       <c r="G3">
-        <v>2.060034893413459</v>
+        <v>2.160056606210349</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>24.08361384384708</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.68740201607875</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>12.07103812320345</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.675102660916692</v>
       </c>
       <c r="M3">
-        <v>17.71223482092392</v>
+        <v>10.9446908698399</v>
       </c>
       <c r="N3">
-        <v>11.90502843424683</v>
+        <v>16.68921569426036</v>
       </c>
       <c r="O3">
-        <v>22.88564573472557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.42789189279361</v>
+        <v>13.77936981757177</v>
       </c>
       <c r="C4">
-        <v>14.64363511670216</v>
+        <v>6.158704705328401</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.44868352947468</v>
+        <v>5.646361373086272</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>33.88790109795828</v>
       </c>
       <c r="G4">
-        <v>2.066905705781301</v>
+        <v>2.164749993090548</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>24.04631807798088</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.716568891852562</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>11.69955290650953</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.61241026848054</v>
       </c>
       <c r="M4">
-        <v>16.84694215555414</v>
+        <v>10.76319957314701</v>
       </c>
       <c r="N4">
-        <v>12.08605099546322</v>
+        <v>16.80658580866698</v>
       </c>
       <c r="O4">
-        <v>22.25507775362325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.97740846326895</v>
+        <v>13.57619960972179</v>
       </c>
       <c r="C5">
-        <v>14.32754610532533</v>
+        <v>6.022952634357299</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.299163585208989</v>
+        <v>5.636546926961749</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>33.73358736558716</v>
       </c>
       <c r="G5">
-        <v>2.0697411820248</v>
+        <v>2.166696542097606</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>24.03455326304541</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.728544794747811</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>11.5466467813099</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.587397077359064</v>
       </c>
       <c r="M5">
-        <v>16.48414495950777</v>
+        <v>10.68977378537911</v>
       </c>
       <c r="N5">
-        <v>12.16061600508387</v>
+        <v>16.85543214017005</v>
       </c>
       <c r="O5">
-        <v>22.0013854511164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.90181165761741</v>
+        <v>13.54228944375017</v>
       </c>
       <c r="C6">
-        <v>14.2745119817697</v>
+        <v>6.000168930856184</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.274272737281052</v>
+        <v>5.634937830531866</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>33.70822663909483</v>
       </c>
       <c r="G6">
-        <v>2.070214244930865</v>
+        <v>2.167021846927474</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>24.03280362580198</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.730539119832392</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>11.5211713893181</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.583276472843254</v>
       </c>
       <c r="M6">
-        <v>16.42328226584032</v>
+        <v>10.67761639260952</v>
       </c>
       <c r="N6">
-        <v>12.17304666339307</v>
+        <v>16.86360438155595</v>
       </c>
       <c r="O6">
-        <v>21.95946191842106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.42186963342392</v>
+        <v>13.77664163465278</v>
       </c>
       <c r="C7">
-        <v>14.63940884996982</v>
+        <v>6.156890109475906</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.446671372757171</v>
+        <v>5.646227632795778</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>33.88580237157184</v>
       </c>
       <c r="G7">
-        <v>2.066943798071839</v>
+        <v>2.164776106035216</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>24.04614566838406</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.716730024800606</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>11.69749663644357</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.612070743400858</v>
       </c>
       <c r="M7">
-        <v>16.84209082656685</v>
+        <v>10.76220704644284</v>
       </c>
       <c r="N7">
-        <v>12.0870533305436</v>
+        <v>16.8072404532118</v>
       </c>
       <c r="O7">
-        <v>22.2516429375882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.60283571854958</v>
+        <v>14.78366755528231</v>
       </c>
       <c r="C8">
-        <v>16.17115113320992</v>
+        <v>6.813611201039173</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.19743186852766</v>
+        <v>5.699030663769092</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>34.70726449973003</v>
       </c>
       <c r="G8">
-        <v>2.052815952950273</v>
+        <v>2.155161318020792</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>24.13548331115348</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.65655751378417</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>12.4616613607151</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.743775177855485</v>
       </c>
       <c r="M8">
-        <v>18.60132323358296</v>
+        <v>11.13992766233882</v>
       </c>
       <c r="N8">
-        <v>11.71448152261562</v>
+        <v>16.56745729406575</v>
       </c>
       <c r="O8">
-        <v>23.56932232481838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.48652224190308</v>
+        <v>16.64708404511547</v>
       </c>
       <c r="C9">
-        <v>18.90529051703368</v>
+        <v>7.979743143734249</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.6293448374675</v>
+        <v>5.813224295310733</v>
       </c>
       <c r="F9">
-        <v>34.45877994148619</v>
+        <v>36.45028718084568</v>
       </c>
       <c r="G9">
-        <v>2.02597768584095</v>
+        <v>2.137290582740609</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>24.42811352186087</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.540572168315855</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>13.89843157114575</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.017465243881825</v>
       </c>
       <c r="M9">
-        <v>21.74591824306657</v>
+        <v>11.89090098783886</v>
       </c>
       <c r="N9">
-        <v>11.00626099864867</v>
+        <v>16.12969035310919</v>
       </c>
       <c r="O9">
-        <v>26.24939858657738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.11768642794307</v>
+        <v>17.93966413095917</v>
       </c>
       <c r="C10">
-        <v>20.76316895879153</v>
+        <v>8.765953852354237</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.79659306923172</v>
+        <v>5.903571902083071</v>
       </c>
       <c r="F10">
-        <v>37.72874519847222</v>
+        <v>37.8078701312757</v>
       </c>
       <c r="G10">
-        <v>2.006539257742868</v>
+        <v>2.124681460300717</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>24.72209940324118</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.45581618949508</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>14.90875350717174</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.226816854298517</v>
       </c>
       <c r="M10">
-        <v>23.88558004512232</v>
+        <v>12.44435115326495</v>
       </c>
       <c r="N10">
-        <v>10.49753867920196</v>
+        <v>15.82830921433964</v>
       </c>
       <c r="O10">
-        <v>28.27803713319748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.2709020915369</v>
+        <v>18.50999401184068</v>
       </c>
       <c r="C11">
-        <v>21.57907551860433</v>
+        <v>9.109171295226576</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.33372175002766</v>
+        <v>5.94607327567646</v>
       </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>38.44151493964566</v>
       </c>
       <c r="G11">
-        <v>1.997691719842631</v>
+        <v>2.119039140530115</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>24.87460831541995</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.41716863651956</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>15.35750374198574</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.323624319882841</v>
       </c>
       <c r="M11">
-        <v>24.82588912921721</v>
+        <v>12.69568991984917</v>
       </c>
       <c r="N11">
-        <v>10.26828948099033</v>
+        <v>15.69575454181498</v>
       </c>
       <c r="O11">
-        <v>29.21576915052108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.70173768177466</v>
+        <v>18.72337089141162</v>
       </c>
       <c r="C12">
-        <v>21.88416753346366</v>
+        <v>9.237140718445172</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>13.53515725156509</v>
+        <v>5.962369547248072</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>38.68372549405314</v>
       </c>
       <c r="G12">
-        <v>1.994334290388292</v>
+        <v>2.116914280629121</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>24.93519421183023</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.402503215816028</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>15.5258203054593</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.360491104040072</v>
       </c>
       <c r="M12">
-        <v>25.17759388663069</v>
+        <v>12.7907474994152</v>
       </c>
       <c r="N12">
-        <v>10.18177673300237</v>
+        <v>15.64623118794654</v>
       </c>
       <c r="O12">
-        <v>29.57329593620682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.60920287291098</v>
+        <v>18.67753232187101</v>
       </c>
       <c r="C13">
-        <v>21.81862700667561</v>
+        <v>9.20966787175977</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>13.4918573951013</v>
+        <v>5.958850858249083</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>38.63146108040977</v>
       </c>
       <c r="G13">
-        <v>1.995057798412682</v>
+        <v>2.117371412641079</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>24.92201772972509</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.405663322904011</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>15.48964279344063</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.352542208338836</v>
       </c>
       <c r="M13">
-        <v>25.10203568723742</v>
+        <v>12.77028124970704</v>
       </c>
       <c r="N13">
-        <v>10.20039556101018</v>
+        <v>15.65686668914077</v>
       </c>
       <c r="O13">
-        <v>29.49618232279423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.30646204580014</v>
+        <v>18.52760086608829</v>
       </c>
       <c r="C14">
-        <v>21.60425119201279</v>
+        <v>9.119739034882326</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.35033173467265</v>
+        <v>5.947409927867193</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>38.46139661804108</v>
       </c>
       <c r="G14">
-        <v>1.997415683405553</v>
+        <v>2.118864101510436</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>24.87953517172955</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.415962818275478</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>15.37138385359659</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.326653304253859</v>
       </c>
       <c r="M14">
-        <v>24.85490929906631</v>
+        <v>12.70351304238441</v>
       </c>
       <c r="N14">
-        <v>10.26116605870571</v>
+        <v>15.6916666316203</v>
       </c>
       <c r="O14">
-        <v>29.24513236957938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.12027468826458</v>
+        <v>18.43542449943577</v>
       </c>
       <c r="C15">
-        <v>21.47244596197042</v>
+        <v>9.06439697732851</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.26339563919687</v>
+        <v>5.94042834874806</v>
       </c>
       <c r="F15">
-        <v>38.96319309154517</v>
+        <v>38.35752074963554</v>
       </c>
       <c r="G15">
-        <v>1.998858831845815</v>
+        <v>2.119779895666718</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>24.85388650923181</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.422267052773602</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>15.29873523376544</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.310822164842484</v>
       </c>
       <c r="M15">
-        <v>24.70298036645499</v>
+        <v>12.66259855802291</v>
       </c>
       <c r="N15">
-        <v>10.29842852194543</v>
+        <v>15.71307076912768</v>
       </c>
       <c r="O15">
-        <v>29.09168374079108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.04147638781392</v>
+        <v>17.90203092555176</v>
       </c>
       <c r="C16">
-        <v>20.70928628424653</v>
+        <v>8.74323970491329</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.76120106616503</v>
+        <v>5.900822556193491</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>37.76677894240213</v>
       </c>
       <c r="G16">
-        <v>2.007116844582906</v>
+        <v>2.125051941196816</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>24.71252177771049</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.458338616797474</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.87920302637594</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.220520306556987</v>
       </c>
       <c r="M16">
-        <v>23.82349523353746</v>
+        <v>12.42791183261755</v>
       </c>
       <c r="N16">
-        <v>10.51256290540488</v>
+        <v>15.83706493402735</v>
       </c>
       <c r="O16">
-        <v>28.21707567581269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.36875660048242</v>
+        <v>17.57023817160701</v>
       </c>
       <c r="C17">
-        <v>20.23384271851465</v>
+        <v>8.542575554477592</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.44934174140848</v>
+        <v>5.876884715757357</v>
       </c>
       <c r="F17">
-        <v>36.80228778268393</v>
+        <v>37.40845612007131</v>
       </c>
       <c r="G17">
-        <v>2.012177379264856</v>
+        <v>2.128308986492056</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>24.63070209536266</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.48043212158729</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>14.61900769264671</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.165512324336795</v>
       </c>
       <c r="M17">
-        <v>23.2757533383366</v>
+        <v>12.28378558896607</v>
       </c>
       <c r="N17">
-        <v>10.64447004324473</v>
+        <v>15.91430745142819</v>
       </c>
       <c r="O17">
-        <v>27.68451431445006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.9776829584422</v>
+        <v>17.37773779470267</v>
       </c>
       <c r="C18">
-        <v>19.95760445973479</v>
+        <v>8.425795392431452</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.26850059644297</v>
+        <v>5.863248182907337</v>
       </c>
       <c r="F18">
-        <v>36.31710943239623</v>
+        <v>37.20387339458623</v>
       </c>
       <c r="G18">
-        <v>2.015088034932516</v>
+        <v>2.130191275852385</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>24.58540040021613</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.493132223178365</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>14.46833066428719</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.134022191805879</v>
       </c>
       <c r="M18">
-        <v>22.95757177507553</v>
+        <v>12.20085050601059</v>
       </c>
       <c r="N18">
-        <v>10.72054405533914</v>
+        <v>15.9591617677433</v>
       </c>
       <c r="O18">
-        <v>27.37957726028734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.84454856258612</v>
+        <v>17.31227712165623</v>
       </c>
       <c r="C19">
-        <v>19.86358881708002</v>
+        <v>8.386019240489702</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.2070116741128</v>
+        <v>5.858653740123911</v>
       </c>
       <c r="F19">
-        <v>36.15172494150063</v>
+        <v>37.13486711319511</v>
       </c>
       <c r="G19">
-        <v>2.016073706439165</v>
+        <v>2.130830168745575</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>24.5703600570092</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.497431470593436</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>14.41714097621428</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.123386345638188</v>
       </c>
       <c r="M19">
-        <v>22.84929179020239</v>
+        <v>12.17276557707981</v>
       </c>
       <c r="N19">
-        <v>10.74633714868465</v>
+        <v>15.9744214117526</v>
       </c>
       <c r="O19">
-        <v>27.27656066341663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.44079466484754</v>
+        <v>17.60573055933451</v>
       </c>
       <c r="C20">
-        <v>20.28473951119088</v>
+        <v>8.564077175719174</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.48268990962232</v>
+        <v>5.879419290767876</v>
       </c>
       <c r="F20">
-        <v>36.891556977314</v>
+        <v>37.44644378581764</v>
       </c>
       <c r="G20">
-        <v>2.011638722878019</v>
+        <v>2.12796135682318</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>24.63922894486215</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.478081126019641</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>14.64681192553033</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.171352733550064</v>
       </c>
       <c r="M20">
-        <v>23.33438326097484</v>
+        <v>12.29913239833613</v>
       </c>
       <c r="N20">
-        <v>10.63040727529928</v>
+        <v>15.90604059422703</v>
       </c>
       <c r="O20">
-        <v>27.74106204273011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.39553979504526</v>
+        <v>18.57171007794959</v>
       </c>
       <c r="C21">
-        <v>21.66732082244066</v>
+        <v>9.146206947151748</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.39195233242063</v>
+        <v>5.950764919299031</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>38.51128756769214</v>
       </c>
       <c r="G21">
-        <v>1.996723362437588</v>
+        <v>2.118425357599558</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>24.89193532369747</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.412938578627683</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.40616353431657</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.334251997589969</v>
       </c>
       <c r="M21">
-        <v>24.92761160727798</v>
+        <v>12.72312812101382</v>
       </c>
       <c r="N21">
-        <v>10.24330821158409</v>
+        <v>15.68142663161657</v>
       </c>
       <c r="O21">
-        <v>29.3188030580172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.6391505350846</v>
+        <v>19.18790400351916</v>
       </c>
       <c r="C22">
-        <v>22.54852684547872</v>
+        <v>9.515046991749536</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>13.97490990652706</v>
+        <v>5.998571194372121</v>
       </c>
       <c r="F22">
-        <v>40.81974568026791</v>
+        <v>39.22040402024403</v>
       </c>
       <c r="G22">
-        <v>1.986930486222931</v>
+        <v>2.112260705120974</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>25.07367783640537</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.370177520780758</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.96702789829841</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.44192067682291</v>
       </c>
       <c r="M22">
-        <v>25.94362496193759</v>
+        <v>12.9995208115287</v>
       </c>
       <c r="N22">
-        <v>9.992064511061303</v>
+        <v>15.53855844195517</v>
       </c>
       <c r="O22">
-        <v>30.50038182226209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.97836069039513</v>
+        <v>18.86042472708649</v>
       </c>
       <c r="C23">
-        <v>22.08013667725498</v>
+        <v>9.319226251521668</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.66471423616698</v>
+        <v>5.972947971330592</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>38.84074126274263</v>
       </c>
       <c r="G23">
-        <v>1.992163590977975</v>
+        <v>2.115545304283621</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>24.97511558801972</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.393023131469764</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.64960441563053</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.384351226031373</v>
       </c>
       <c r="M23">
-        <v>25.40352989330172</v>
+        <v>12.85208649502279</v>
       </c>
       <c r="N23">
-        <v>10.1259984058594</v>
+        <v>15.61444300394076</v>
       </c>
       <c r="O23">
-        <v>29.83914627835152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.40823973701105</v>
+        <v>17.5896898920391</v>
       </c>
       <c r="C24">
-        <v>20.26173812668694</v>
+        <v>8.554360707921527</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.46761804630485</v>
+        <v>5.878273018045014</v>
       </c>
       <c r="F24">
-        <v>36.85121910575439</v>
+        <v>37.42926512954112</v>
       </c>
       <c r="G24">
-        <v>2.011882244956111</v>
+        <v>2.128118489636652</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>24.63536855432099</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.479144015279213</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>14.63424501397097</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.168711863613978</v>
       </c>
       <c r="M24">
-        <v>23.30788690944238</v>
+        <v>12.29219433491381</v>
       </c>
       <c r="N24">
-        <v>10.63676430756825</v>
+        <v>15.90977665077601</v>
       </c>
       <c r="O24">
-        <v>27.71549297383816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.47627915556333</v>
+        <v>16.15593008433046</v>
       </c>
       <c r="C25">
-        <v>18.19319799505264</v>
+        <v>7.676940172859615</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.24643217117019</v>
+        <v>5.781197218767969</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>35.96497979588833</v>
       </c>
       <c r="G25">
-        <v>2.033169198962896</v>
+        <v>2.142027603685948</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>24.33561651839985</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.571809174293268</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>13.51725550317606</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.941891632895309</v>
       </c>
       <c r="M25">
-        <v>20.92641552641249</v>
+        <v>11.68713930408038</v>
       </c>
       <c r="N25">
-        <v>11.19567947934934</v>
+        <v>16.24460511154019</v>
       </c>
       <c r="O25">
-        <v>25.51424533524507</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_59/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.04939158417173</v>
+        <v>17.49950888782199</v>
       </c>
       <c r="C2">
-        <v>6.983186947876001</v>
+        <v>4.887934018899122</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.714060140096271</v>
+        <v>10.84314820719703</v>
       </c>
       <c r="F2">
-        <v>34.93891391038964</v>
+        <v>48.03215854380844</v>
       </c>
       <c r="G2">
-        <v>2.152625519862526</v>
+        <v>3.756706411964176</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>24.16736410810061</v>
+        <v>35.10461217398687</v>
       </c>
       <c r="J2">
-        <v>6.640416265735243</v>
+        <v>10.25428702937504</v>
       </c>
       <c r="K2">
-        <v>12.66488283339246</v>
+        <v>15.40012242737566</v>
       </c>
       <c r="L2">
-        <v>6.780546037165508</v>
+        <v>11.55002993862346</v>
       </c>
       <c r="M2">
-        <v>11.24314918551132</v>
+        <v>17.47034419889365</v>
       </c>
       <c r="N2">
-        <v>16.50467166290981</v>
+        <v>24.58050386192985</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.27054352195184</v>
+        <v>17.37953526142808</v>
       </c>
       <c r="C3">
-        <v>6.48205117197317</v>
+        <v>4.732791445289155</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.671280349715503</v>
+        <v>10.85391462275479</v>
       </c>
       <c r="F3">
-        <v>34.27720161640951</v>
+        <v>48.02260685275188</v>
       </c>
       <c r="G3">
-        <v>2.160056606210349</v>
+        <v>3.759423490622539</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>24.08361384384708</v>
+        <v>35.15757813093179</v>
       </c>
       <c r="J3">
-        <v>6.68740201607875</v>
+        <v>10.26418018169992</v>
       </c>
       <c r="K3">
-        <v>12.07103812320345</v>
+        <v>15.32004611744008</v>
       </c>
       <c r="L3">
-        <v>6.675102660916692</v>
+        <v>11.55903775805177</v>
       </c>
       <c r="M3">
-        <v>10.9446908698399</v>
+        <v>17.46502518455279</v>
       </c>
       <c r="N3">
-        <v>16.68921569426036</v>
+        <v>24.63573892978388</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.77936981757177</v>
+        <v>17.30963935431379</v>
       </c>
       <c r="C4">
-        <v>6.158704705328401</v>
+        <v>4.636536189421834</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.646361373086272</v>
+        <v>10.86139474191786</v>
       </c>
       <c r="F4">
-        <v>33.88790109795828</v>
+        <v>48.02574198225521</v>
       </c>
       <c r="G4">
-        <v>2.164749993090548</v>
+        <v>3.761179866074676</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>24.04631807798088</v>
+        <v>35.19540732490741</v>
       </c>
       <c r="J4">
-        <v>6.716568891852562</v>
+        <v>10.2704920358906</v>
       </c>
       <c r="K4">
-        <v>11.69955290650953</v>
+        <v>15.27421455790508</v>
       </c>
       <c r="L4">
-        <v>6.61241026848054</v>
+        <v>11.56605586058928</v>
       </c>
       <c r="M4">
-        <v>10.76319957314701</v>
+        <v>17.46460891160368</v>
       </c>
       <c r="N4">
-        <v>16.80658580866698</v>
+        <v>24.67157768027342</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.57619960972179</v>
+        <v>17.28213039872448</v>
       </c>
       <c r="C5">
-        <v>6.022952634357299</v>
+        <v>4.597130245005647</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.636546926961749</v>
+        <v>10.86466218338205</v>
       </c>
       <c r="F5">
-        <v>33.73358736558716</v>
+        <v>48.0292849208512</v>
       </c>
       <c r="G5">
-        <v>2.166696542097606</v>
+        <v>3.761917825765259</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>24.03455326304541</v>
+        <v>35.21215651781753</v>
       </c>
       <c r="J5">
-        <v>6.728544794747811</v>
+        <v>10.27312411037364</v>
       </c>
       <c r="K5">
-        <v>11.5466467813099</v>
+        <v>15.25639205977417</v>
       </c>
       <c r="L5">
-        <v>6.587397077359064</v>
+        <v>11.56929046473482</v>
       </c>
       <c r="M5">
-        <v>10.68977378537911</v>
+        <v>17.46515799838344</v>
       </c>
       <c r="N5">
-        <v>16.85543214017005</v>
+        <v>24.68666684590406</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.54228944375017</v>
+        <v>17.27762214097799</v>
       </c>
       <c r="C6">
-        <v>6.000168930856184</v>
+        <v>4.59057809647588</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.634937830531866</v>
+        <v>10.8652179977866</v>
       </c>
       <c r="F6">
-        <v>33.70822663909483</v>
+        <v>48.03001008872303</v>
       </c>
       <c r="G6">
-        <v>2.167021846927474</v>
+        <v>3.762041707779475</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>24.03280362580198</v>
+        <v>35.21501820881458</v>
       </c>
       <c r="J6">
-        <v>6.730539119832392</v>
+        <v>10.2735647918115</v>
       </c>
       <c r="K6">
-        <v>11.5211713893181</v>
+        <v>15.25348466854075</v>
       </c>
       <c r="L6">
-        <v>6.583276472843254</v>
+        <v>11.56985021624132</v>
       </c>
       <c r="M6">
-        <v>10.67761639260952</v>
+        <v>17.46529263996369</v>
       </c>
       <c r="N6">
-        <v>16.86360438155595</v>
+        <v>24.68920167967166</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.77664163465278</v>
+        <v>17.30926438056162</v>
       </c>
       <c r="C7">
-        <v>6.156890109475906</v>
+        <v>4.636005385346595</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5.646227632795778</v>
+        <v>10.86143791932112</v>
       </c>
       <c r="F7">
-        <v>33.88580237157184</v>
+        <v>48.02578058916709</v>
       </c>
       <c r="G7">
-        <v>2.164776106035216</v>
+        <v>3.761189728380726</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>24.04614566838406</v>
+        <v>35.19562781293752</v>
       </c>
       <c r="J7">
-        <v>6.716730024800606</v>
+        <v>10.27052728994995</v>
       </c>
       <c r="K7">
-        <v>11.69749663644357</v>
+        <v>15.27397071921785</v>
       </c>
       <c r="L7">
-        <v>6.612070743400858</v>
+        <v>11.56609796570321</v>
       </c>
       <c r="M7">
-        <v>10.76220704644284</v>
+        <v>17.46461340408512</v>
       </c>
       <c r="N7">
-        <v>16.8072404532118</v>
+        <v>24.67177921503455</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.78366755528231</v>
+        <v>17.45737631453924</v>
       </c>
       <c r="C8">
-        <v>6.813611201039173</v>
+        <v>4.834688154529508</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5.699030663769092</v>
+        <v>10.8466803589343</v>
       </c>
       <c r="F8">
-        <v>34.70726449973003</v>
+        <v>48.02699884931592</v>
       </c>
       <c r="G8">
-        <v>2.155161318020792</v>
+        <v>3.757625024956567</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>24.13548331115348</v>
+        <v>35.12177249834693</v>
       </c>
       <c r="J8">
-        <v>6.65655751378417</v>
+        <v>10.25764905866651</v>
       </c>
       <c r="K8">
-        <v>12.4616613607151</v>
+        <v>15.37182946085961</v>
       </c>
       <c r="L8">
-        <v>6.743775177855485</v>
+        <v>11.55282758134634</v>
       </c>
       <c r="M8">
-        <v>11.13992766233882</v>
+        <v>17.46792014574847</v>
       </c>
       <c r="N8">
-        <v>16.56745729406575</v>
+        <v>24.59914998564162</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.64708404511547</v>
+        <v>17.77647879015111</v>
       </c>
       <c r="C9">
-        <v>7.979743143734249</v>
+        <v>5.213572081374961</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>5.813224295310733</v>
+        <v>10.8246140567587</v>
       </c>
       <c r="F9">
-        <v>36.45028718084568</v>
+        <v>48.1006591666706</v>
       </c>
       <c r="G9">
-        <v>2.137290582740609</v>
+        <v>3.751330116676649</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>24.42811352186087</v>
+        <v>35.01910852905304</v>
       </c>
       <c r="J9">
-        <v>6.540572168315855</v>
+        <v>10.23426736937343</v>
       </c>
       <c r="K9">
-        <v>13.89843157114575</v>
+        <v>15.58946070313552</v>
       </c>
       <c r="L9">
-        <v>7.017465243881825</v>
+        <v>11.53857348734287</v>
       </c>
       <c r="M9">
-        <v>11.89090098783886</v>
+        <v>17.49690934655285</v>
       </c>
       <c r="N9">
-        <v>16.12969035310919</v>
+        <v>24.47195834763625</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.93966413095917</v>
+        <v>18.02662734416986</v>
       </c>
       <c r="C10">
-        <v>8.765953852354237</v>
+        <v>5.481967954635303</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>5.903571902083071</v>
+        <v>10.81255745055873</v>
       </c>
       <c r="F10">
-        <v>37.8078701312757</v>
+        <v>48.19798063927271</v>
       </c>
       <c r="G10">
-        <v>2.124681460300717</v>
+        <v>3.74712446856062</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>24.72209940324118</v>
+        <v>34.9694494877444</v>
       </c>
       <c r="J10">
-        <v>6.45581618949508</v>
+        <v>10.21821408062382</v>
       </c>
       <c r="K10">
-        <v>14.90875350717174</v>
+        <v>15.76397843319624</v>
       </c>
       <c r="L10">
-        <v>7.226816854298517</v>
+        <v>11.53523081208338</v>
       </c>
       <c r="M10">
-        <v>12.44435115326495</v>
+        <v>17.53176925213479</v>
       </c>
       <c r="N10">
-        <v>15.82830921433964</v>
+        <v>24.38775037198593</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.50999401184068</v>
+        <v>18.14343629564108</v>
       </c>
       <c r="C11">
-        <v>9.109171295226576</v>
+        <v>5.601280520382866</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5.94607327567646</v>
+        <v>10.80796742957017</v>
       </c>
       <c r="F11">
-        <v>38.44151493964566</v>
+        <v>48.25156004683161</v>
       </c>
       <c r="G11">
-        <v>2.119039140530115</v>
+        <v>3.745301228287851</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>24.87460831541995</v>
+        <v>34.95246324566297</v>
       </c>
       <c r="J11">
-        <v>6.41716863651956</v>
+        <v>10.21115184952372</v>
       </c>
       <c r="K11">
-        <v>15.35750374198574</v>
+        <v>15.84629938912607</v>
       </c>
       <c r="L11">
-        <v>7.323624319882841</v>
+        <v>11.53524738305041</v>
       </c>
       <c r="M11">
-        <v>12.69568991984917</v>
+        <v>17.55053261267133</v>
       </c>
       <c r="N11">
-        <v>15.69575454181498</v>
+        <v>24.35143845548361</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.72337089141162</v>
+        <v>18.18806744709924</v>
       </c>
       <c r="C12">
-        <v>9.237140718445172</v>
+        <v>5.64601592930628</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>5.962369547248072</v>
+        <v>10.80635730616386</v>
       </c>
       <c r="F12">
-        <v>38.68372549405314</v>
+        <v>48.27317901520944</v>
       </c>
       <c r="G12">
-        <v>2.116914280629121</v>
+        <v>3.744623669471139</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>24.93519421183023</v>
+        <v>34.94683719222569</v>
       </c>
       <c r="J12">
-        <v>6.402503215816028</v>
+        <v>10.20851188674683</v>
       </c>
       <c r="K12">
-        <v>15.5258203054593</v>
+        <v>15.87787169186921</v>
       </c>
       <c r="L12">
-        <v>7.360491104040072</v>
+        <v>11.53547363402824</v>
       </c>
       <c r="M12">
-        <v>12.7907474994152</v>
+        <v>17.55805163453269</v>
       </c>
       <c r="N12">
-        <v>15.64623118794654</v>
+        <v>24.33797423673607</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.67753232187101</v>
+        <v>18.17843819337314</v>
       </c>
       <c r="C13">
-        <v>9.20966787175977</v>
+        <v>5.636401855185627</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>5.958850858249083</v>
+        <v>10.80669839144508</v>
       </c>
       <c r="F13">
-        <v>38.63146108040977</v>
+        <v>48.26846400124936</v>
       </c>
       <c r="G13">
-        <v>2.117371412641079</v>
+        <v>3.744769022909026</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>24.92201772972509</v>
+        <v>34.94801300004482</v>
       </c>
       <c r="J13">
-        <v>6.405663322904011</v>
+        <v>10.20907892587666</v>
       </c>
       <c r="K13">
-        <v>15.48964279344063</v>
+        <v>15.87105464478278</v>
       </c>
       <c r="L13">
-        <v>7.352542208338836</v>
+        <v>11.53541514115636</v>
       </c>
       <c r="M13">
-        <v>12.77028124970704</v>
+        <v>17.55641394516253</v>
       </c>
       <c r="N13">
-        <v>15.65686668914077</v>
+        <v>24.34086127126479</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.52760086608829</v>
+        <v>18.14710035318439</v>
       </c>
       <c r="C14">
-        <v>9.119739034882326</v>
+        <v>5.604970105491157</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>5.947409927867193</v>
+        <v>10.80783240168043</v>
       </c>
       <c r="F14">
-        <v>38.46139661804108</v>
+        <v>48.25331205953619</v>
       </c>
       <c r="G14">
-        <v>2.118864101510436</v>
+        <v>3.745245227722143</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>24.87953517172955</v>
+        <v>34.95198422638847</v>
       </c>
       <c r="J14">
-        <v>6.415962818275478</v>
+        <v>10.21093397107795</v>
       </c>
       <c r="K14">
-        <v>15.37138385359659</v>
+        <v>15.84888899325432</v>
       </c>
       <c r="L14">
-        <v>7.326653304253859</v>
+        <v>11.53526159459496</v>
       </c>
       <c r="M14">
-        <v>12.70351304238441</v>
+        <v>17.55114293941488</v>
       </c>
       <c r="N14">
-        <v>15.6916666316203</v>
+        <v>24.35032501082766</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.43542449943577</v>
+        <v>18.12795580828251</v>
       </c>
       <c r="C15">
-        <v>9.06439697732851</v>
+        <v>5.58565794019937</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>5.94042834874806</v>
+        <v>10.80854366875329</v>
       </c>
       <c r="F15">
-        <v>38.35752074963554</v>
+        <v>48.24420393125286</v>
       </c>
       <c r="G15">
-        <v>2.119779895666718</v>
+        <v>3.745538589980953</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>24.85388650923181</v>
+        <v>34.95452172600455</v>
       </c>
       <c r="J15">
-        <v>6.422267052773602</v>
+        <v>10.2120747064677</v>
       </c>
       <c r="K15">
-        <v>15.29873523376544</v>
+        <v>15.83536319293909</v>
       </c>
       <c r="L15">
-        <v>7.310822164842484</v>
+        <v>11.53519615726668</v>
       </c>
       <c r="M15">
-        <v>12.66259855802291</v>
+        <v>17.54796805222718</v>
       </c>
       <c r="N15">
-        <v>15.71307076912768</v>
+        <v>24.3561590961994</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.90203092555176</v>
+        <v>18.01905126203211</v>
       </c>
       <c r="C16">
-        <v>8.74323970491329</v>
+        <v>5.474110606010878</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>5.900822556193491</v>
+        <v>10.81287536762612</v>
       </c>
       <c r="F16">
-        <v>37.76677894240213</v>
+        <v>48.19466566389645</v>
       </c>
       <c r="G16">
-        <v>2.125051941196816</v>
+        <v>3.747245425303309</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>24.71252177771049</v>
+        <v>34.97067238572231</v>
       </c>
       <c r="J16">
-        <v>6.458338616797474</v>
+        <v>10.2186804335244</v>
       </c>
       <c r="K16">
-        <v>14.87920302637594</v>
+        <v>15.75865565957803</v>
       </c>
       <c r="L16">
-        <v>7.220520306556987</v>
+        <v>11.53526057144332</v>
       </c>
       <c r="M16">
-        <v>12.42791183261755</v>
+        <v>17.53060114787452</v>
       </c>
       <c r="N16">
-        <v>15.83706493402735</v>
+        <v>24.39016353486221</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.57023817160701</v>
+        <v>17.95298909454678</v>
       </c>
       <c r="C17">
-        <v>8.542575554477592</v>
+        <v>5.404933378768228</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>5.876884715757357</v>
+        <v>10.81576141026582</v>
       </c>
       <c r="F17">
-        <v>37.40845612007131</v>
+        <v>48.16665351635067</v>
       </c>
       <c r="G17">
-        <v>2.128308986492056</v>
+        <v>3.748315497411123</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>24.63070209536266</v>
+        <v>34.98201596713844</v>
       </c>
       <c r="J17">
-        <v>6.48043212158729</v>
+        <v>10.22279426367312</v>
       </c>
       <c r="K17">
-        <v>14.61900769264671</v>
+        <v>15.71233326699314</v>
       </c>
       <c r="L17">
-        <v>7.165512324336795</v>
+        <v>11.53569305859637</v>
       </c>
       <c r="M17">
-        <v>12.28378558896607</v>
+        <v>17.52068848157394</v>
       </c>
       <c r="N17">
-        <v>15.91430745142819</v>
+        <v>24.41153467372566</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.37773779470267</v>
+        <v>17.915277848401</v>
       </c>
       <c r="C18">
-        <v>8.425795392431452</v>
+        <v>5.364885018123351</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>5.863248182907337</v>
+        <v>10.81750562658763</v>
       </c>
       <c r="F18">
-        <v>37.20387339458623</v>
+        <v>48.15141832588949</v>
       </c>
       <c r="G18">
-        <v>2.130191275852385</v>
+        <v>3.74893944333684</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>24.58540040021613</v>
+        <v>34.98906794938315</v>
       </c>
       <c r="J18">
-        <v>6.493132223178365</v>
+        <v>10.22518307982807</v>
       </c>
       <c r="K18">
-        <v>14.46833066428719</v>
+        <v>15.68596721712007</v>
       </c>
       <c r="L18">
-        <v>7.134022191805879</v>
+        <v>11.5360865682496</v>
       </c>
       <c r="M18">
-        <v>12.20085050601059</v>
+        <v>17.51526071242585</v>
       </c>
       <c r="N18">
-        <v>15.9591617677433</v>
+        <v>24.42401456934599</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.31227712165623</v>
+        <v>17.90255965221792</v>
       </c>
       <c r="C19">
-        <v>8.386019240489702</v>
+        <v>5.351282240014036</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>5.858653740123911</v>
+        <v>10.81811067553318</v>
       </c>
       <c r="F19">
-        <v>37.13486711319511</v>
+        <v>48.14641076676921</v>
       </c>
       <c r="G19">
-        <v>2.130830168745575</v>
+        <v>3.749152157338552</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>24.5703600570092</v>
+        <v>34.99154620332394</v>
       </c>
       <c r="J19">
-        <v>6.497431470593436</v>
+        <v>10.22599578913807</v>
       </c>
       <c r="K19">
-        <v>14.41714097621428</v>
+        <v>15.67708843603444</v>
       </c>
       <c r="L19">
-        <v>7.123386345638188</v>
+        <v>11.53624469684519</v>
       </c>
       <c r="M19">
-        <v>12.17276557707981</v>
+        <v>17.51347009532986</v>
       </c>
       <c r="N19">
-        <v>15.9744214117526</v>
+        <v>24.42827231551045</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.60573055933451</v>
+        <v>17.95999218336619</v>
       </c>
       <c r="C20">
-        <v>8.564077175719174</v>
+        <v>5.412324610465543</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>5.879419290767876</v>
+        <v>10.81544547197591</v>
       </c>
       <c r="F20">
-        <v>37.44644378581764</v>
+        <v>48.16954478644685</v>
       </c>
       <c r="G20">
-        <v>2.12796135682318</v>
+        <v>3.748200710426315</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>24.63922894486215</v>
+        <v>34.9807538300814</v>
       </c>
       <c r="J20">
-        <v>6.478081126019641</v>
+        <v>10.22235399692484</v>
       </c>
       <c r="K20">
-        <v>14.64681192553033</v>
+        <v>15.71723581896559</v>
       </c>
       <c r="L20">
-        <v>7.171352733550064</v>
+        <v>11.5356320455478</v>
       </c>
       <c r="M20">
-        <v>12.29913239833613</v>
+        <v>17.52171539965958</v>
       </c>
       <c r="N20">
-        <v>15.90604059422703</v>
+        <v>24.40924024860204</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.57171007794959</v>
+        <v>18.1562945165498</v>
       </c>
       <c r="C21">
-        <v>9.146206947151748</v>
+        <v>5.614214807361593</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>5.950764919299031</v>
+        <v>10.80749584603047</v>
       </c>
       <c r="F21">
-        <v>38.51128756769214</v>
+        <v>48.25772654274857</v>
       </c>
       <c r="G21">
-        <v>2.118425357599558</v>
+        <v>3.74510500628354</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>24.89193532369747</v>
+        <v>34.95079589674969</v>
       </c>
       <c r="J21">
-        <v>6.412938578627683</v>
+        <v>10.21038816890294</v>
       </c>
       <c r="K21">
-        <v>15.40616353431657</v>
+        <v>15.85538893233728</v>
       </c>
       <c r="L21">
-        <v>7.334251997589969</v>
+        <v>11.5353007337457</v>
       </c>
       <c r="M21">
-        <v>12.72312812101382</v>
+        <v>17.55267996654403</v>
       </c>
       <c r="N21">
-        <v>15.68142663161657</v>
+        <v>24.34753751464121</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.18790400351916</v>
+        <v>18.28689326538007</v>
       </c>
       <c r="C22">
-        <v>9.515046991749536</v>
+        <v>5.743546193792012</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>5.998571194372121</v>
+        <v>10.80304619638412</v>
       </c>
       <c r="F22">
-        <v>39.22040402024403</v>
+        <v>48.32310349104878</v>
       </c>
       <c r="G22">
-        <v>2.112260705120974</v>
+        <v>3.743156726621438</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>25.07367783640537</v>
+        <v>34.93591623976944</v>
       </c>
       <c r="J22">
-        <v>6.370177520780758</v>
+        <v>10.20276792482404</v>
       </c>
       <c r="K22">
-        <v>15.96702789829841</v>
+        <v>15.94799559667021</v>
       </c>
       <c r="L22">
-        <v>7.44192067682291</v>
+        <v>11.53636584101791</v>
       </c>
       <c r="M22">
-        <v>12.9995208115287</v>
+        <v>17.57532661543601</v>
       </c>
       <c r="N22">
-        <v>15.53855844195517</v>
+        <v>24.30887985103937</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.86042472708649</v>
+        <v>18.21699130726052</v>
       </c>
       <c r="C23">
-        <v>9.319226251521668</v>
+        <v>5.674772759344414</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>5.972947971330592</v>
+        <v>10.80535301744557</v>
       </c>
       <c r="F23">
-        <v>38.84074126274263</v>
+        <v>48.28750511594507</v>
       </c>
       <c r="G23">
-        <v>2.115545304283621</v>
+        <v>3.744189725670083</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>24.97511558801972</v>
+        <v>34.94342769675421</v>
       </c>
       <c r="J23">
-        <v>6.393023131469764</v>
+        <v>10.20681675814132</v>
       </c>
       <c r="K23">
-        <v>15.64960441563053</v>
+        <v>15.89836539729654</v>
       </c>
       <c r="L23">
-        <v>7.384351226031373</v>
+        <v>11.53568047561074</v>
       </c>
       <c r="M23">
-        <v>12.85208649502279</v>
+        <v>17.56302062300124</v>
       </c>
       <c r="N23">
-        <v>15.61444300394076</v>
+        <v>24.32935966043259</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.5896898920391</v>
+        <v>17.95682524699116</v>
       </c>
       <c r="C24">
-        <v>8.554360707921527</v>
+        <v>5.408983895306005</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>5.878273018045014</v>
+        <v>10.81558804291549</v>
       </c>
       <c r="F24">
-        <v>37.42926512954112</v>
+        <v>48.16823493448197</v>
       </c>
       <c r="G24">
-        <v>2.128118489636652</v>
+        <v>3.74825257836905</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>24.63536855432099</v>
+        <v>34.9813227900072</v>
       </c>
       <c r="J24">
-        <v>6.479144015279213</v>
+        <v>10.22255296760075</v>
       </c>
       <c r="K24">
-        <v>14.63424501397097</v>
+        <v>15.71501854707403</v>
       </c>
       <c r="L24">
-        <v>7.168711863613978</v>
+        <v>11.53565917822766</v>
       </c>
       <c r="M24">
-        <v>12.29219433491381</v>
+        <v>17.52125028505651</v>
       </c>
       <c r="N24">
-        <v>15.90977665077601</v>
+        <v>24.41027695584614</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.15593008433046</v>
+        <v>17.68726261070109</v>
       </c>
       <c r="C25">
-        <v>7.676940172859615</v>
+        <v>5.112596534952814</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>5.781197218767969</v>
+        <v>10.82985128888759</v>
       </c>
       <c r="F25">
-        <v>35.96497979588833</v>
+        <v>48.07312274435973</v>
       </c>
       <c r="G25">
-        <v>2.142027603685948</v>
+        <v>3.752959095000199</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>24.33561651839985</v>
+        <v>35.04236041520695</v>
       </c>
       <c r="J25">
-        <v>6.571809174293268</v>
+        <v>10.24039395877489</v>
       </c>
       <c r="K25">
-        <v>13.51725550317606</v>
+        <v>15.52793649874665</v>
       </c>
       <c r="L25">
-        <v>6.941891632895309</v>
+        <v>11.54117399016338</v>
       </c>
       <c r="M25">
-        <v>11.68713930408038</v>
+        <v>17.48667274015308</v>
       </c>
       <c r="N25">
-        <v>16.24460511154019</v>
+        <v>24.50474110985745</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_59/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.49950888782199</v>
+        <v>15.04939158417179</v>
       </c>
       <c r="C2">
-        <v>4.887934018899122</v>
+        <v>6.983186947876197</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.84314820719703</v>
+        <v>5.714060140096272</v>
       </c>
       <c r="F2">
-        <v>48.03215854380844</v>
+        <v>34.93891391038972</v>
       </c>
       <c r="G2">
-        <v>3.756706411964176</v>
+        <v>2.152625519862528</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>35.10461217398687</v>
+        <v>24.16736410810068</v>
       </c>
       <c r="J2">
-        <v>10.25428702937504</v>
+        <v>6.640416265735243</v>
       </c>
       <c r="K2">
-        <v>15.40012242737566</v>
+        <v>12.66488283339247</v>
       </c>
       <c r="L2">
-        <v>11.55002993862346</v>
+        <v>6.780546037165465</v>
       </c>
       <c r="M2">
-        <v>17.47034419889365</v>
+        <v>11.24314918551132</v>
       </c>
       <c r="N2">
-        <v>24.58050386192985</v>
+        <v>16.50467166290983</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.37953526142808</v>
+        <v>14.27054352195182</v>
       </c>
       <c r="C3">
-        <v>4.732791445289155</v>
+        <v>6.48205117197317</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.85391462275479</v>
+        <v>5.671280349715447</v>
       </c>
       <c r="F3">
-        <v>48.02260685275188</v>
+        <v>34.27720161640948</v>
       </c>
       <c r="G3">
-        <v>3.759423490622539</v>
+        <v>2.160056606210614</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>35.15757813093179</v>
+        <v>24.08361384384703</v>
       </c>
       <c r="J3">
-        <v>10.26418018169992</v>
+        <v>6.687402016078649</v>
       </c>
       <c r="K3">
-        <v>15.32004611744008</v>
+        <v>12.07103812320342</v>
       </c>
       <c r="L3">
-        <v>11.55903775805177</v>
+        <v>6.675102660916668</v>
       </c>
       <c r="M3">
-        <v>17.46502518455279</v>
+        <v>10.94469086983986</v>
       </c>
       <c r="N3">
-        <v>24.63573892978388</v>
+        <v>16.68921569426036</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.30963935431379</v>
+        <v>13.77936981757183</v>
       </c>
       <c r="C4">
-        <v>4.636536189421834</v>
+        <v>6.158704705328304</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.86139474191786</v>
+        <v>5.646361373086343</v>
       </c>
       <c r="F4">
-        <v>48.02574198225521</v>
+        <v>33.8879010979586</v>
       </c>
       <c r="G4">
-        <v>3.761179866074676</v>
+        <v>2.164749993090548</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>35.19540732490741</v>
+        <v>24.04631807798114</v>
       </c>
       <c r="J4">
-        <v>10.2704920358906</v>
+        <v>6.716568891852629</v>
       </c>
       <c r="K4">
-        <v>15.27421455790508</v>
+        <v>11.69955290650956</v>
       </c>
       <c r="L4">
-        <v>11.56605586058928</v>
+        <v>6.612410268480641</v>
       </c>
       <c r="M4">
-        <v>17.46460891160368</v>
+        <v>10.76319957314709</v>
       </c>
       <c r="N4">
-        <v>24.67157768027342</v>
+        <v>16.80658580866714</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.28213039872448</v>
+        <v>13.57619960972186</v>
       </c>
       <c r="C5">
-        <v>4.597130245005647</v>
+        <v>6.022952634357307</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.86466218338205</v>
+        <v>5.63654692696187</v>
       </c>
       <c r="F5">
-        <v>48.0292849208512</v>
+        <v>33.73358736558736</v>
       </c>
       <c r="G5">
-        <v>3.761917825765259</v>
+        <v>2.16669654209774</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>35.21215651781753</v>
+        <v>24.03455326304553</v>
       </c>
       <c r="J5">
-        <v>10.27312411037364</v>
+        <v>6.728544794747876</v>
       </c>
       <c r="K5">
-        <v>15.25639205977417</v>
+        <v>11.54664678130993</v>
       </c>
       <c r="L5">
-        <v>11.56929046473482</v>
+        <v>6.587397077359138</v>
       </c>
       <c r="M5">
-        <v>17.46515799838344</v>
+        <v>10.68977378537916</v>
       </c>
       <c r="N5">
-        <v>24.68666684590406</v>
+        <v>16.85543214017012</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.27762214097799</v>
+        <v>13.5422894437501</v>
       </c>
       <c r="C6">
-        <v>4.59057809647588</v>
+        <v>6.000168930856256</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.8652179977866</v>
+        <v>5.634937830531866</v>
       </c>
       <c r="F6">
-        <v>48.03001008872303</v>
+        <v>33.7082266390948</v>
       </c>
       <c r="G6">
-        <v>3.762041707779475</v>
+        <v>2.16702184692774</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>35.21501820881458</v>
+        <v>24.03280362580186</v>
       </c>
       <c r="J6">
-        <v>10.2735647918115</v>
+        <v>6.730539119832324</v>
       </c>
       <c r="K6">
-        <v>15.25348466854075</v>
+        <v>11.52117138931806</v>
       </c>
       <c r="L6">
-        <v>11.56985021624132</v>
+        <v>6.583276472843286</v>
       </c>
       <c r="M6">
-        <v>17.46529263996369</v>
+        <v>10.67761639260949</v>
       </c>
       <c r="N6">
-        <v>24.68920167967166</v>
+        <v>16.86360438155589</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.30926438056162</v>
+        <v>13.7766416346528</v>
       </c>
       <c r="C7">
-        <v>4.636005385346595</v>
+        <v>6.156890109475833</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.86143791932112</v>
+        <v>5.646227632795907</v>
       </c>
       <c r="F7">
-        <v>48.02578058916709</v>
+        <v>33.88580237157186</v>
       </c>
       <c r="G7">
-        <v>3.761189728380726</v>
+        <v>2.164776106035215</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>35.19562781293752</v>
+        <v>24.04614566838407</v>
       </c>
       <c r="J7">
-        <v>10.27052728994995</v>
+        <v>6.716730024800705</v>
       </c>
       <c r="K7">
-        <v>15.27397071921785</v>
+        <v>11.6974966364436</v>
       </c>
       <c r="L7">
-        <v>11.56609796570321</v>
+        <v>6.612070743400953</v>
       </c>
       <c r="M7">
-        <v>17.46461340408512</v>
+        <v>10.76220704644291</v>
       </c>
       <c r="N7">
-        <v>24.67177921503455</v>
+        <v>16.80724045321181</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.45737631453924</v>
+        <v>14.78366755528234</v>
       </c>
       <c r="C8">
-        <v>4.834688154529508</v>
+        <v>6.813611201039358</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.8466803589343</v>
+        <v>5.699030663769149</v>
       </c>
       <c r="F8">
-        <v>48.02699884931592</v>
+        <v>34.70726449972994</v>
       </c>
       <c r="G8">
-        <v>3.757625024956567</v>
+        <v>2.155161318021059</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>35.12177249834693</v>
+        <v>24.13548331115335</v>
       </c>
       <c r="J8">
-        <v>10.25764905866651</v>
+        <v>6.656557513784033</v>
       </c>
       <c r="K8">
-        <v>15.37182946085961</v>
+        <v>12.46166136071504</v>
       </c>
       <c r="L8">
-        <v>11.55282758134634</v>
+        <v>6.74377517785546</v>
       </c>
       <c r="M8">
-        <v>17.46792014574847</v>
+        <v>11.13992766233878</v>
       </c>
       <c r="N8">
-        <v>24.59914998564162</v>
+        <v>16.56745729406567</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.77647879015111</v>
+        <v>16.64708404511547</v>
       </c>
       <c r="C9">
-        <v>5.213572081374961</v>
+        <v>7.979743143734315</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.8246140567587</v>
+        <v>5.813224295310732</v>
       </c>
       <c r="F9">
-        <v>48.1006591666706</v>
+        <v>36.45028718084578</v>
       </c>
       <c r="G9">
-        <v>3.751330116676649</v>
+        <v>2.137290582740745</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>35.01910852905304</v>
+        <v>24.42811352186096</v>
       </c>
       <c r="J9">
-        <v>10.23426736937343</v>
+        <v>6.540572168315823</v>
       </c>
       <c r="K9">
-        <v>15.58946070313552</v>
+        <v>13.89843157114575</v>
       </c>
       <c r="L9">
-        <v>11.53857348734287</v>
+        <v>7.017465243881806</v>
       </c>
       <c r="M9">
-        <v>17.49690934655285</v>
+        <v>11.89090098783885</v>
       </c>
       <c r="N9">
-        <v>24.47195834763625</v>
+        <v>16.12969035310925</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.02662734416986</v>
+        <v>17.93966413095921</v>
       </c>
       <c r="C10">
-        <v>5.481967954635303</v>
+        <v>8.765953852354297</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>10.81255745055873</v>
+        <v>5.903571902083187</v>
       </c>
       <c r="F10">
-        <v>48.19798063927271</v>
+        <v>37.80787013127585</v>
       </c>
       <c r="G10">
-        <v>3.74712446856062</v>
+        <v>2.124681460300855</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>34.9694494877444</v>
+        <v>24.72209940324133</v>
       </c>
       <c r="J10">
-        <v>10.21821408062382</v>
+        <v>6.45581618949508</v>
       </c>
       <c r="K10">
-        <v>15.76397843319624</v>
+        <v>14.90875350717174</v>
       </c>
       <c r="L10">
-        <v>11.53523081208338</v>
+        <v>7.226816854298492</v>
       </c>
       <c r="M10">
-        <v>17.53176925213479</v>
+        <v>12.44435115326499</v>
       </c>
       <c r="N10">
-        <v>24.38775037198593</v>
+        <v>15.82830921433973</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.14343629564108</v>
+        <v>18.5099940118407</v>
       </c>
       <c r="C11">
-        <v>5.601280520382866</v>
+        <v>9.109171295226789</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10.80796742957017</v>
+        <v>5.94607327567644</v>
       </c>
       <c r="F11">
-        <v>48.25156004683161</v>
+        <v>38.44151493964576</v>
       </c>
       <c r="G11">
-        <v>3.745301228287851</v>
+        <v>2.119039140530244</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>34.95246324566297</v>
+        <v>24.87460831542002</v>
       </c>
       <c r="J11">
-        <v>10.21115184952372</v>
+        <v>6.417168636519461</v>
       </c>
       <c r="K11">
-        <v>15.84629938912607</v>
+        <v>15.35750374198577</v>
       </c>
       <c r="L11">
-        <v>11.53524738305041</v>
+        <v>7.32362431988279</v>
       </c>
       <c r="M11">
-        <v>17.55053261267133</v>
+        <v>12.69568991984917</v>
       </c>
       <c r="N11">
-        <v>24.35143845548361</v>
+        <v>15.69575454181497</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.18806744709924</v>
+        <v>18.72337089141164</v>
       </c>
       <c r="C12">
-        <v>5.64601592930628</v>
+        <v>9.23714071844519</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.80635730616386</v>
+        <v>5.962369547248015</v>
       </c>
       <c r="F12">
-        <v>48.27317901520944</v>
+        <v>38.68372549405322</v>
       </c>
       <c r="G12">
-        <v>3.744623669471139</v>
+        <v>2.116914280629122</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>34.94683719222569</v>
+        <v>24.93519421183032</v>
       </c>
       <c r="J12">
-        <v>10.20851188674683</v>
+        <v>6.402503215815996</v>
       </c>
       <c r="K12">
-        <v>15.87787169186921</v>
+        <v>15.52582030545932</v>
       </c>
       <c r="L12">
-        <v>11.53547363402824</v>
+        <v>7.360491104040029</v>
       </c>
       <c r="M12">
-        <v>17.55805163453269</v>
+        <v>12.79074749941521</v>
       </c>
       <c r="N12">
-        <v>24.33797423673607</v>
+        <v>15.64623118794659</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.17843819337314</v>
+        <v>18.67753232187104</v>
       </c>
       <c r="C13">
-        <v>5.636401855185627</v>
+        <v>9.209667871759883</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>10.80669839144508</v>
+        <v>5.958850858249085</v>
       </c>
       <c r="F13">
-        <v>48.26846400124936</v>
+        <v>38.63146108040972</v>
       </c>
       <c r="G13">
-        <v>3.744769022909026</v>
+        <v>2.117371412641077</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>34.94801300004482</v>
+        <v>24.92201772972501</v>
       </c>
       <c r="J13">
-        <v>10.20907892587666</v>
+        <v>6.405663322903908</v>
       </c>
       <c r="K13">
-        <v>15.87105464478278</v>
+        <v>15.48964279344063</v>
       </c>
       <c r="L13">
-        <v>11.53541514115636</v>
+        <v>7.352542208338749</v>
       </c>
       <c r="M13">
-        <v>17.55641394516253</v>
+        <v>12.77028124970701</v>
       </c>
       <c r="N13">
-        <v>24.34086127126479</v>
+        <v>15.65686668914067</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.14710035318439</v>
+        <v>18.52760086608829</v>
       </c>
       <c r="C14">
-        <v>5.604970105491157</v>
+        <v>9.119739034882356</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10.80783240168043</v>
+        <v>5.947409927867363</v>
       </c>
       <c r="F14">
-        <v>48.25331205953619</v>
+        <v>38.46139661804111</v>
       </c>
       <c r="G14">
-        <v>3.745245227722143</v>
+        <v>2.118864101510432</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>34.95198422638847</v>
+        <v>24.87953517172949</v>
       </c>
       <c r="J14">
-        <v>10.21093397107795</v>
+        <v>6.415962818275411</v>
       </c>
       <c r="K14">
-        <v>15.84888899325432</v>
+        <v>15.37138385359658</v>
       </c>
       <c r="L14">
-        <v>11.53526159459496</v>
+        <v>7.326653304253935</v>
       </c>
       <c r="M14">
-        <v>17.55114293941488</v>
+        <v>12.70351304238443</v>
       </c>
       <c r="N14">
-        <v>24.35032501082766</v>
+        <v>15.69166663162027</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.12795580828251</v>
+        <v>18.43542449943578</v>
       </c>
       <c r="C15">
-        <v>5.58565794019937</v>
+        <v>9.064396977328414</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>10.80854366875329</v>
+        <v>5.940428348748097</v>
       </c>
       <c r="F15">
-        <v>48.24420393125286</v>
+        <v>38.35752074963543</v>
       </c>
       <c r="G15">
-        <v>3.745538589980953</v>
+        <v>2.11977989566659</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>34.95452172600455</v>
+        <v>24.85388650923166</v>
       </c>
       <c r="J15">
-        <v>10.2120747064677</v>
+        <v>6.422267052773603</v>
       </c>
       <c r="K15">
-        <v>15.83536319293909</v>
+        <v>15.29873523376542</v>
       </c>
       <c r="L15">
-        <v>11.53519615726668</v>
+        <v>7.310822164842556</v>
       </c>
       <c r="M15">
-        <v>17.54796805222718</v>
+        <v>12.66259855802288</v>
       </c>
       <c r="N15">
-        <v>24.3561590961994</v>
+        <v>15.71307076912758</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.01905126203211</v>
+        <v>17.90203092555178</v>
       </c>
       <c r="C16">
-        <v>5.474110606010878</v>
+        <v>8.743239704913238</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.81287536762612</v>
+        <v>5.900822556193486</v>
       </c>
       <c r="F16">
-        <v>48.19466566389645</v>
+        <v>37.76677894240223</v>
       </c>
       <c r="G16">
-        <v>3.747245425303309</v>
+        <v>2.12505194119668</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>34.97067238572231</v>
+        <v>24.71252177771063</v>
       </c>
       <c r="J16">
-        <v>10.2186804335244</v>
+        <v>6.458338616797472</v>
       </c>
       <c r="K16">
-        <v>15.75865565957803</v>
+        <v>14.87920302637596</v>
       </c>
       <c r="L16">
-        <v>11.53526057144332</v>
+        <v>7.220520306556991</v>
       </c>
       <c r="M16">
-        <v>17.53060114787452</v>
+        <v>12.42791183261758</v>
       </c>
       <c r="N16">
-        <v>24.39016353486221</v>
+        <v>15.83706493402739</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.95298909454678</v>
+        <v>17.57023817160704</v>
       </c>
       <c r="C17">
-        <v>5.404933378768228</v>
+        <v>8.542575554477827</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.81576141026582</v>
+        <v>5.876884715757462</v>
       </c>
       <c r="F17">
-        <v>48.16665351635067</v>
+        <v>37.40845612007132</v>
       </c>
       <c r="G17">
-        <v>3.748315497411123</v>
+        <v>2.128308986492055</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>34.98201596713844</v>
+        <v>24.63070209536263</v>
       </c>
       <c r="J17">
-        <v>10.22279426367312</v>
+        <v>6.480432121587124</v>
       </c>
       <c r="K17">
-        <v>15.71233326699314</v>
+        <v>14.61900769264669</v>
       </c>
       <c r="L17">
-        <v>11.53569305859637</v>
+        <v>7.165512324336746</v>
       </c>
       <c r="M17">
-        <v>17.52068848157394</v>
+        <v>12.28378558896606</v>
       </c>
       <c r="N17">
-        <v>24.41153467372566</v>
+        <v>15.91430745142814</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.915277848401</v>
+        <v>17.37773779470269</v>
       </c>
       <c r="C18">
-        <v>5.364885018123351</v>
+        <v>8.425795392431384</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.81750562658763</v>
+        <v>5.863248182907214</v>
       </c>
       <c r="F18">
-        <v>48.15141832588949</v>
+        <v>37.20387339458637</v>
       </c>
       <c r="G18">
-        <v>3.74893944333684</v>
+        <v>2.130191275852385</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>34.98906794938315</v>
+        <v>24.58540040021632</v>
       </c>
       <c r="J18">
-        <v>10.22518307982807</v>
+        <v>6.493132223178331</v>
       </c>
       <c r="K18">
-        <v>15.68596721712007</v>
+        <v>14.46833066428718</v>
       </c>
       <c r="L18">
-        <v>11.5360865682496</v>
+        <v>7.134022191805784</v>
       </c>
       <c r="M18">
-        <v>17.51526071242585</v>
+        <v>12.20085050601058</v>
       </c>
       <c r="N18">
-        <v>24.42401456934599</v>
+        <v>15.95916176774343</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.90255965221792</v>
+        <v>17.31227712165622</v>
       </c>
       <c r="C19">
-        <v>5.351282240014036</v>
+        <v>8.386019240489684</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.81811067553318</v>
+        <v>5.858653740124023</v>
       </c>
       <c r="F19">
-        <v>48.14641076676921</v>
+        <v>37.13486711319522</v>
       </c>
       <c r="G19">
-        <v>3.749152157338552</v>
+        <v>2.130830168745442</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>34.99154620332394</v>
+        <v>24.57036005700925</v>
       </c>
       <c r="J19">
-        <v>10.22599578913807</v>
+        <v>6.497431470593436</v>
       </c>
       <c r="K19">
-        <v>15.67708843603444</v>
+        <v>14.41714097621428</v>
       </c>
       <c r="L19">
-        <v>11.53624469684519</v>
+        <v>7.123386345638247</v>
       </c>
       <c r="M19">
-        <v>17.51347009532986</v>
+        <v>12.17276557707985</v>
       </c>
       <c r="N19">
-        <v>24.42827231551045</v>
+        <v>15.97442141175269</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.95999218336619</v>
+        <v>17.60573055933453</v>
       </c>
       <c r="C20">
-        <v>5.412324610465543</v>
+        <v>8.56407717571904</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.81544547197591</v>
+        <v>5.879419290767763</v>
       </c>
       <c r="F20">
-        <v>48.16954478644685</v>
+        <v>37.44644378581777</v>
       </c>
       <c r="G20">
-        <v>3.748200710426315</v>
+        <v>2.127961356823047</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>34.9807538300814</v>
+        <v>24.63922894486224</v>
       </c>
       <c r="J20">
-        <v>10.22235399692484</v>
+        <v>6.478081126019607</v>
       </c>
       <c r="K20">
-        <v>15.71723581896559</v>
+        <v>14.64681192553034</v>
       </c>
       <c r="L20">
-        <v>11.5356320455478</v>
+        <v>7.171352733550072</v>
       </c>
       <c r="M20">
-        <v>17.52171539965958</v>
+        <v>12.29913239833611</v>
       </c>
       <c r="N20">
-        <v>24.40924024860204</v>
+        <v>15.90604059422714</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.1562945165498</v>
+        <v>18.57171007794963</v>
       </c>
       <c r="C21">
-        <v>5.614214807361593</v>
+        <v>9.146206947151779</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>10.80749584603047</v>
+        <v>5.950764919298976</v>
       </c>
       <c r="F21">
-        <v>48.25772654274857</v>
+        <v>38.51128756769217</v>
       </c>
       <c r="G21">
-        <v>3.74510500628354</v>
+        <v>2.118425357599958</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>34.95079589674969</v>
+        <v>24.8919353236976</v>
       </c>
       <c r="J21">
-        <v>10.21038816890294</v>
+        <v>6.412938578627752</v>
       </c>
       <c r="K21">
-        <v>15.85538893233728</v>
+        <v>15.40616353431659</v>
       </c>
       <c r="L21">
-        <v>11.5353007337457</v>
+        <v>7.334251997589939</v>
       </c>
       <c r="M21">
-        <v>17.55267996654403</v>
+        <v>12.72312812101382</v>
       </c>
       <c r="N21">
-        <v>24.34753751464121</v>
+        <v>15.68142663161662</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.28689326538007</v>
+        <v>19.18790400351914</v>
       </c>
       <c r="C22">
-        <v>5.743546193792012</v>
+        <v>9.515046991749475</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.80304619638412</v>
+        <v>5.998571194372112</v>
       </c>
       <c r="F22">
-        <v>48.32310349104878</v>
+        <v>39.2204040202441</v>
       </c>
       <c r="G22">
-        <v>3.743156726621438</v>
+        <v>2.112260705120975</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>34.93591623976944</v>
+        <v>25.07367783640543</v>
       </c>
       <c r="J22">
-        <v>10.20276792482404</v>
+        <v>6.370177520780759</v>
       </c>
       <c r="K22">
-        <v>15.94799559667021</v>
+        <v>15.96702789829838</v>
       </c>
       <c r="L22">
-        <v>11.53636584101791</v>
+        <v>7.441920676822929</v>
       </c>
       <c r="M22">
-        <v>17.57532661543601</v>
+        <v>12.9995208115287</v>
       </c>
       <c r="N22">
-        <v>24.30887985103937</v>
+        <v>15.53855844195524</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.21699130726052</v>
+        <v>18.8604247270865</v>
       </c>
       <c r="C23">
-        <v>5.674772759344414</v>
+        <v>9.319226251521583</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.80535301744557</v>
+        <v>5.972947971330583</v>
       </c>
       <c r="F23">
-        <v>48.28750511594507</v>
+        <v>38.8407412627427</v>
       </c>
       <c r="G23">
-        <v>3.744189725670083</v>
+        <v>2.115545304283619</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>34.94342769675421</v>
+        <v>24.9751155880198</v>
       </c>
       <c r="J23">
-        <v>10.20681675814132</v>
+        <v>6.393023131469763</v>
       </c>
       <c r="K23">
-        <v>15.89836539729654</v>
+        <v>15.64960441563053</v>
       </c>
       <c r="L23">
-        <v>11.53568047561074</v>
+        <v>7.384351226031378</v>
       </c>
       <c r="M23">
-        <v>17.56302062300124</v>
+        <v>12.85208649502279</v>
       </c>
       <c r="N23">
-        <v>24.32935966043259</v>
+        <v>15.61444300394081</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.95682524699116</v>
+        <v>17.58968989203912</v>
       </c>
       <c r="C24">
-        <v>5.408983895306005</v>
+        <v>8.554360707921511</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10.81558804291549</v>
+        <v>5.878273018045175</v>
       </c>
       <c r="F24">
-        <v>48.16823493448197</v>
+        <v>37.42926512954127</v>
       </c>
       <c r="G24">
-        <v>3.74825257836905</v>
+        <v>2.128118489636256</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>34.9813227900072</v>
+        <v>24.63536855432109</v>
       </c>
       <c r="J24">
-        <v>10.22255296760075</v>
+        <v>6.479144015279214</v>
       </c>
       <c r="K24">
-        <v>15.71501854707403</v>
+        <v>14.63424501397096</v>
       </c>
       <c r="L24">
-        <v>11.53565917822766</v>
+        <v>7.16871186361404</v>
       </c>
       <c r="M24">
-        <v>17.52125028505651</v>
+        <v>12.29219433491386</v>
       </c>
       <c r="N24">
-        <v>24.41027695584614</v>
+        <v>15.90977665077602</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.68726261070109</v>
+        <v>16.15593008433045</v>
       </c>
       <c r="C25">
-        <v>5.112596534952814</v>
+        <v>7.676940172859764</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.82985128888759</v>
+        <v>5.781197218768019</v>
       </c>
       <c r="F25">
-        <v>48.07312274435973</v>
+        <v>35.96497979588826</v>
       </c>
       <c r="G25">
-        <v>3.752959095000199</v>
+        <v>2.142027603686081</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>35.04236041520695</v>
+        <v>24.33561651839972</v>
       </c>
       <c r="J25">
-        <v>10.24039395877489</v>
+        <v>6.571809174293203</v>
       </c>
       <c r="K25">
-        <v>15.52793649874665</v>
+        <v>13.51725550317605</v>
       </c>
       <c r="L25">
-        <v>11.54117399016338</v>
+        <v>6.94189163289529</v>
       </c>
       <c r="M25">
-        <v>17.48667274015308</v>
+        <v>11.68713930408037</v>
       </c>
       <c r="N25">
-        <v>24.50474110985745</v>
+        <v>16.24460511154009</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_59/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.04939158417179</v>
+        <v>16.74005868427889</v>
       </c>
       <c r="C2">
-        <v>6.983186947876197</v>
+        <v>12.81776533635684</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.714060140096272</v>
+        <v>15.5074096533725</v>
       </c>
       <c r="F2">
-        <v>34.93891391038972</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.152625519862528</v>
+        <v>17.21280345669459</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.297636824960474</v>
       </c>
       <c r="I2">
-        <v>24.16736410810068</v>
+        <v>3.344601392491191</v>
       </c>
       <c r="J2">
-        <v>6.640416265735243</v>
+        <v>7.403397330438907</v>
       </c>
       <c r="K2">
-        <v>12.66488283339247</v>
+        <v>10.90846283246088</v>
       </c>
       <c r="L2">
-        <v>6.780546037165465</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>11.24314918551132</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>16.50467166290983</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>16.19977760024071</v>
+      </c>
+      <c r="P2">
+        <v>12.11344057367429</v>
+      </c>
+      <c r="Q2">
+        <v>11.55526442115847</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.27054352195182</v>
+        <v>15.69967196908659</v>
       </c>
       <c r="C3">
-        <v>6.48205117197317</v>
+        <v>12.21310031262715</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.671280349715447</v>
+        <v>14.83019000234452</v>
       </c>
       <c r="F3">
-        <v>34.27720161640948</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.160056606210614</v>
+        <v>16.66240280962402</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.116380664872502</v>
       </c>
       <c r="I3">
-        <v>24.08361384384703</v>
+        <v>3.228242450268557</v>
       </c>
       <c r="J3">
-        <v>6.687402016078649</v>
+        <v>7.409444135128965</v>
       </c>
       <c r="K3">
-        <v>12.07103812320342</v>
+        <v>11.04250991003501</v>
       </c>
       <c r="L3">
-        <v>6.675102660916668</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>10.94469086983986</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>16.68921569426036</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15.27393329795903</v>
+      </c>
+      <c r="P3">
+        <v>12.13340864062401</v>
+      </c>
+      <c r="Q3">
+        <v>11.45253526512961</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.77936981757183</v>
+        <v>15.02093614626768</v>
       </c>
       <c r="C4">
-        <v>6.158704705328304</v>
+        <v>11.82816322492472</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.646361373086343</v>
+        <v>14.39753310188877</v>
       </c>
       <c r="F4">
-        <v>33.8879010979586</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.164749993090548</v>
+        <v>16.32512119454496</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.000961981248958</v>
       </c>
       <c r="I4">
-        <v>24.04631807798114</v>
+        <v>3.15467817729883</v>
       </c>
       <c r="J4">
-        <v>6.716568891852629</v>
+        <v>7.415809020674796</v>
       </c>
       <c r="K4">
-        <v>11.69955290650956</v>
+        <v>11.12859609609587</v>
       </c>
       <c r="L4">
-        <v>6.612410268480641</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>10.76319957314709</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>16.80658580866714</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>14.67596931043312</v>
+      </c>
+      <c r="P4">
+        <v>12.1483234721419</v>
+      </c>
+      <c r="Q4">
+        <v>11.39439798763642</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.57619960972186</v>
+        <v>14.72937946053989</v>
       </c>
       <c r="C5">
-        <v>6.022952634357307</v>
+        <v>11.67579144197494</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.63654692696187</v>
+        <v>14.21677607080271</v>
       </c>
       <c r="F5">
-        <v>33.73358736558736</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>2.16669654209774</v>
+        <v>16.17602061640919</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.952743411922503</v>
       </c>
       <c r="I5">
-        <v>24.03455326304553</v>
+        <v>3.124482169045014</v>
       </c>
       <c r="J5">
-        <v>6.728544794747876</v>
+        <v>7.417317227420763</v>
       </c>
       <c r="K5">
-        <v>11.54664678130993</v>
+        <v>11.16100653779311</v>
       </c>
       <c r="L5">
-        <v>6.587397077359138</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>10.68977378537916</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>16.85543214017012</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>14.42499605330334</v>
+      </c>
+      <c r="P5">
+        <v>12.15617205635877</v>
+      </c>
+      <c r="Q5">
+        <v>11.3672933985794</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.5422894437501</v>
+        <v>14.67431073662312</v>
       </c>
       <c r="C6">
-        <v>6.000168930856256</v>
+        <v>11.65986118380992</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.634937830531866</v>
+        <v>14.1860974966835</v>
       </c>
       <c r="F6">
-        <v>33.7082266390948</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>2.16702184692774</v>
+        <v>16.13659526317291</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.944508698786697</v>
       </c>
       <c r="I6">
-        <v>24.03280362580186</v>
+        <v>3.120007743744623</v>
       </c>
       <c r="J6">
-        <v>6.730539119832324</v>
+        <v>7.415485516311203</v>
       </c>
       <c r="K6">
-        <v>11.52117138931806</v>
+        <v>11.16205476338012</v>
       </c>
       <c r="L6">
-        <v>6.583276472843286</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>10.67761639260949</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>16.86360438155589</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>14.38287930931979</v>
+      </c>
+      <c r="P6">
+        <v>12.15888793273656</v>
+      </c>
+      <c r="Q6">
+        <v>11.35719508790237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.7766416346528</v>
+        <v>15.00088680411263</v>
       </c>
       <c r="C7">
-        <v>6.156890109475833</v>
+        <v>11.8518595737108</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5.646227632795907</v>
+        <v>14.39399808381824</v>
       </c>
       <c r="F7">
-        <v>33.88580237157186</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>2.164776106035215</v>
+        <v>16.28339793931118</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.999875670052773</v>
       </c>
       <c r="I7">
-        <v>24.04614566838407</v>
+        <v>3.155567445328606</v>
       </c>
       <c r="J7">
-        <v>6.716730024800705</v>
+        <v>7.410041995298975</v>
       </c>
       <c r="K7">
-        <v>11.6974966364436</v>
+        <v>11.11702409514606</v>
       </c>
       <c r="L7">
-        <v>6.612070743400953</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>10.76220704644291</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>16.80724045321181</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>14.67259503326145</v>
+      </c>
+      <c r="P7">
+        <v>12.15224455984889</v>
+      </c>
+      <c r="Q7">
+        <v>11.37858970697655</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.78366755528234</v>
+        <v>16.36981573375531</v>
       </c>
       <c r="C8">
-        <v>6.813611201039358</v>
+        <v>12.64450966786085</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5.699030663769149</v>
+        <v>15.27614833991549</v>
       </c>
       <c r="F8">
-        <v>34.70726449972994</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.155161318021059</v>
+        <v>16.97250014337448</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.235442709605783</v>
       </c>
       <c r="I8">
-        <v>24.13548331115335</v>
+        <v>3.306342491805447</v>
       </c>
       <c r="J8">
-        <v>6.656557513784033</v>
+        <v>7.397305675589809</v>
       </c>
       <c r="K8">
-        <v>12.46166136071504</v>
+        <v>10.93793036281617</v>
       </c>
       <c r="L8">
-        <v>6.74377517785546</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>11.13992766233878</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>16.56745729406567</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>15.88670312592611</v>
+      </c>
+      <c r="P8">
+        <v>12.12510550535125</v>
+      </c>
+      <c r="Q8">
+        <v>11.49865339474269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.64708404511547</v>
+        <v>18.76288356056263</v>
       </c>
       <c r="C9">
-        <v>7.979743143734315</v>
+        <v>14.04351199606179</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>5.813224295310732</v>
+        <v>16.86927972121629</v>
       </c>
       <c r="F9">
-        <v>36.45028718084578</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>2.137290582740745</v>
+        <v>18.38863425138521</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.66593164826245</v>
       </c>
       <c r="I9">
-        <v>24.42811352186096</v>
+        <v>3.584043114979008</v>
       </c>
       <c r="J9">
-        <v>6.540572168315823</v>
+        <v>7.404495573710509</v>
       </c>
       <c r="K9">
-        <v>13.89843157114575</v>
+        <v>10.63964079323441</v>
       </c>
       <c r="L9">
-        <v>7.017465243881806</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>11.89090098783885</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>16.12969035310925</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>18.02957511708379</v>
+      </c>
+      <c r="P9">
+        <v>12.08628288485468</v>
+      </c>
+      <c r="Q9">
+        <v>11.80115498233856</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.93966413095921</v>
+        <v>20.32731892655886</v>
       </c>
       <c r="C10">
-        <v>8.765953852354297</v>
+        <v>14.99524999162149</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>5.903571902083187</v>
+        <v>17.44445030766392</v>
       </c>
       <c r="F10">
-        <v>37.80787013127585</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>2.124681460300855</v>
+        <v>19.22998265093677</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.940651018208575</v>
       </c>
       <c r="I10">
-        <v>24.72209940324133</v>
+        <v>3.775789910934996</v>
       </c>
       <c r="J10">
-        <v>6.45581618949508</v>
+        <v>7.393869183818517</v>
       </c>
       <c r="K10">
-        <v>14.90875350717174</v>
+        <v>10.39644316008628</v>
       </c>
       <c r="L10">
-        <v>7.226816854298492</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>12.44435115326499</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>15.82830921433973</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>19.17254203941824</v>
+      </c>
+      <c r="P10">
+        <v>12.09939812263602</v>
+      </c>
+      <c r="Q10">
+        <v>11.96910294408088</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.5099940118407</v>
+        <v>21.02994572123918</v>
       </c>
       <c r="C11">
-        <v>9.109171295226789</v>
+        <v>15.32807580646402</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5.94607327567644</v>
+        <v>13.57760119226744</v>
       </c>
       <c r="F11">
-        <v>38.44151493964576</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>2.119039140530244</v>
+        <v>18.08575420537553</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.519474889775516</v>
       </c>
       <c r="I11">
-        <v>24.87460831542002</v>
+        <v>3.834453741136022</v>
       </c>
       <c r="J11">
-        <v>6.417168636519461</v>
+        <v>7.143575340537716</v>
       </c>
       <c r="K11">
-        <v>15.35750374198577</v>
+        <v>9.940612503721193</v>
       </c>
       <c r="L11">
-        <v>7.32362431988279</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>12.69568991984917</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>15.69575454181497</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>17.24784608892312</v>
+      </c>
+      <c r="P11">
+        <v>12.35202401554504</v>
+      </c>
+      <c r="Q11">
+        <v>11.4027325531039</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.72337089141164</v>
+        <v>21.32719973989621</v>
       </c>
       <c r="C12">
-        <v>9.23714071844519</v>
+        <v>15.38341087322655</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>5.962369547248015</v>
+        <v>10.69254029339533</v>
       </c>
       <c r="F12">
-        <v>38.68372549405322</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>2.116914280629122</v>
+        <v>16.97488534365823</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.57148494233572</v>
       </c>
       <c r="I12">
-        <v>24.93519421183032</v>
+        <v>3.845124152263839</v>
       </c>
       <c r="J12">
-        <v>6.402503215815996</v>
+        <v>6.939955631838286</v>
       </c>
       <c r="K12">
-        <v>15.52582030545932</v>
+        <v>9.634876466599275</v>
       </c>
       <c r="L12">
-        <v>7.360491104040029</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>12.79074749941521</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>15.64623118794659</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>15.37219790963879</v>
+      </c>
+      <c r="P12">
+        <v>12.57302752234281</v>
+      </c>
+      <c r="Q12">
+        <v>10.90259760904971</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.67753232187104</v>
+        <v>21.32183642342111</v>
       </c>
       <c r="C13">
-        <v>9.209667871759883</v>
+        <v>15.2627310905073</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>5.958850858249085</v>
+        <v>8.832198931911163</v>
       </c>
       <c r="F13">
-        <v>38.63146108040972</v>
+        <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>2.117371412641077</v>
+        <v>15.74007702547776</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.778431785014565</v>
       </c>
       <c r="I13">
-        <v>24.92201772972501</v>
+        <v>3.822114689914861</v>
       </c>
       <c r="J13">
-        <v>6.405663322903908</v>
+        <v>6.7509486463745</v>
       </c>
       <c r="K13">
-        <v>15.48964279344063</v>
+        <v>9.410241026528544</v>
       </c>
       <c r="L13">
-        <v>7.352542208338749</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>12.77028124970701</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>15.65686668914067</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>13.36638004921664</v>
+      </c>
+      <c r="P13">
+        <v>12.78336047531185</v>
+      </c>
+      <c r="Q13">
+        <v>10.39626562086198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.52760086608829</v>
+        <v>21.1776977828337</v>
       </c>
       <c r="C14">
-        <v>9.119739034882356</v>
+        <v>15.10409299121871</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>5.947409927867363</v>
+        <v>8.503179175276442</v>
       </c>
       <c r="F14">
-        <v>38.46139661804111</v>
+        <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>2.118864101510432</v>
+        <v>14.79797165410454</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.675456442211315</v>
       </c>
       <c r="I14">
-        <v>24.87953517172949</v>
+        <v>3.791799289150632</v>
       </c>
       <c r="J14">
-        <v>6.415962818275411</v>
+        <v>6.624739855967121</v>
       </c>
       <c r="K14">
-        <v>15.37138385359658</v>
+        <v>9.291598920230182</v>
       </c>
       <c r="L14">
-        <v>7.326653304253935</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>12.70351304238443</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>15.69166663162027</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>11.88041383738826</v>
+      </c>
+      <c r="P14">
+        <v>12.92717288673089</v>
+      </c>
+      <c r="Q14">
+        <v>10.0357207944903</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.43542449943578</v>
+        <v>21.07202838448347</v>
       </c>
       <c r="C15">
-        <v>9.064396977328414</v>
+        <v>15.03541576504411</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>5.940428348748097</v>
+        <v>8.571192983048546</v>
       </c>
       <c r="F15">
-        <v>38.35752074963543</v>
+        <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>2.11977989566659</v>
+        <v>14.52936984529723</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.881423265064742</v>
       </c>
       <c r="I15">
-        <v>24.85388650923166</v>
+        <v>3.777649019609737</v>
       </c>
       <c r="J15">
-        <v>6.422267052773603</v>
+        <v>6.59595010721295</v>
       </c>
       <c r="K15">
-        <v>15.29873523376542</v>
+        <v>9.276284973520093</v>
       </c>
       <c r="L15">
-        <v>7.310822164842556</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>12.66259855802288</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>15.71307076912758</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>11.486892834951</v>
+      </c>
+      <c r="P15">
+        <v>12.95942759192793</v>
+      </c>
+      <c r="Q15">
+        <v>9.943071913382816</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.90203092555178</v>
+        <v>20.42953970798994</v>
       </c>
       <c r="C16">
-        <v>8.743239704913238</v>
+        <v>14.67424455043115</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>5.900822556193486</v>
+        <v>8.547158843708013</v>
       </c>
       <c r="F16">
-        <v>37.76677894240223</v>
+        <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>2.12505194119668</v>
+        <v>14.32778828620641</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.618897410377475</v>
       </c>
       <c r="I16">
-        <v>24.71252177771063</v>
+        <v>3.70201969024565</v>
       </c>
       <c r="J16">
-        <v>6.458338616797472</v>
+        <v>6.635252317040628</v>
       </c>
       <c r="K16">
-        <v>14.87920302637596</v>
+        <v>9.424285207671547</v>
       </c>
       <c r="L16">
-        <v>7.220520306556991</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>12.42791183261758</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>15.83706493402739</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>11.26799505279624</v>
+      </c>
+      <c r="P16">
+        <v>12.89887033099231</v>
+      </c>
+      <c r="Q16">
+        <v>9.956424765978051</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.57023817160704</v>
+        <v>20.00469598388066</v>
       </c>
       <c r="C17">
-        <v>8.542575554477827</v>
+        <v>14.48085203719848</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>5.876884715757462</v>
+        <v>8.521637286591503</v>
       </c>
       <c r="F17">
-        <v>37.40845612007132</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>2.128308986492055</v>
+        <v>14.69313629176491</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.893053640638279</v>
       </c>
       <c r="I17">
-        <v>24.63070209536263</v>
+        <v>3.659923586843086</v>
       </c>
       <c r="J17">
-        <v>6.480432121587124</v>
+        <v>6.732301930331147</v>
       </c>
       <c r="K17">
-        <v>14.61900769264669</v>
+        <v>9.597628064500766</v>
       </c>
       <c r="L17">
-        <v>7.165512324336746</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>12.28378558896606</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>15.91430745142814</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>11.92480124488655</v>
+      </c>
+      <c r="P17">
+        <v>12.77743840523616</v>
+      </c>
+      <c r="Q17">
+        <v>10.15982054512677</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.37773779470269</v>
+        <v>19.74055740797425</v>
       </c>
       <c r="C18">
-        <v>8.425795392431384</v>
+        <v>14.39687259365687</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>5.863248182907214</v>
+        <v>9.439355072452482</v>
       </c>
       <c r="F18">
-        <v>37.20387339458637</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>2.130191275852385</v>
+        <v>15.6091278908747</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.742622982897552</v>
       </c>
       <c r="I18">
-        <v>24.58540040021632</v>
+        <v>3.641525193783925</v>
       </c>
       <c r="J18">
-        <v>6.493132223178331</v>
+        <v>6.893597090501967</v>
       </c>
       <c r="K18">
-        <v>14.46833066428718</v>
+        <v>9.826934570832174</v>
       </c>
       <c r="L18">
-        <v>7.134022191805784</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>12.20085050601058</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>15.95916176774343</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>13.42252088801645</v>
+      </c>
+      <c r="P18">
+        <v>12.59145937650105</v>
+      </c>
+      <c r="Q18">
+        <v>10.55887677912917</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.31227712165622</v>
+        <v>19.60643693399347</v>
       </c>
       <c r="C19">
-        <v>8.386019240489684</v>
+        <v>14.45215331439796</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>5.858653740124023</v>
+        <v>11.97781726925144</v>
       </c>
       <c r="F19">
-        <v>37.13486711319522</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>2.130830168745442</v>
+        <v>16.82217579838492</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.533435072307293</v>
       </c>
       <c r="I19">
-        <v>24.57036005700925</v>
+        <v>3.651995449076799</v>
       </c>
       <c r="J19">
-        <v>6.497431470593436</v>
+        <v>7.086124487165028</v>
       </c>
       <c r="K19">
-        <v>14.41714097621428</v>
+        <v>10.07985184277988</v>
       </c>
       <c r="L19">
-        <v>7.123386345638247</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>12.17276557707985</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>15.97442141175269</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>15.47143312585717</v>
+      </c>
+      <c r="P19">
+        <v>12.38711851877532</v>
+      </c>
+      <c r="Q19">
+        <v>11.06086950592241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.60573055933453</v>
+        <v>19.89057067964121</v>
       </c>
       <c r="C20">
-        <v>8.56407717571904</v>
+        <v>14.81679202714074</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>5.879419290767763</v>
+        <v>17.27053852235029</v>
       </c>
       <c r="F20">
-        <v>37.44644378581777</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>2.127961356823047</v>
+        <v>18.89537541326214</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.86637671859322</v>
       </c>
       <c r="I20">
-        <v>24.63922894486224</v>
+        <v>3.732126175784083</v>
       </c>
       <c r="J20">
-        <v>6.478081126019607</v>
+        <v>7.37684629259391</v>
       </c>
       <c r="K20">
-        <v>14.64681192553034</v>
+        <v>10.41942832048672</v>
       </c>
       <c r="L20">
-        <v>7.171352733550072</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>12.29913239833611</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>15.90604059422714</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>18.86708780325611</v>
+      </c>
+      <c r="P20">
+        <v>12.10994088048635</v>
+      </c>
+      <c r="Q20">
+        <v>11.87471378229816</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.57171007794963</v>
+        <v>21.03149638046871</v>
       </c>
       <c r="C21">
-        <v>9.146206947151779</v>
+        <v>15.52745974255162</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>5.950764919298976</v>
+        <v>18.47016408311909</v>
       </c>
       <c r="F21">
-        <v>38.51128756769217</v>
+        <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>2.118425357599958</v>
+        <v>19.82789634393277</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3.107996764710518</v>
       </c>
       <c r="I21">
-        <v>24.8919353236976</v>
+        <v>3.881246365425489</v>
       </c>
       <c r="J21">
-        <v>6.412938578627752</v>
+        <v>7.420217010222116</v>
       </c>
       <c r="K21">
-        <v>15.40616353431659</v>
+        <v>10.3083720038829</v>
       </c>
       <c r="L21">
-        <v>7.334251997589939</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>12.72312812101382</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>15.68142663161662</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>20.13677481139694</v>
+      </c>
+      <c r="P21">
+        <v>12.08332623339423</v>
+      </c>
+      <c r="Q21">
+        <v>12.13407811240473</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.18790400351914</v>
+        <v>21.76015659819869</v>
       </c>
       <c r="C22">
-        <v>9.515046991749475</v>
+        <v>15.94496002000064</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>5.998571194372112</v>
+        <v>18.97685820441929</v>
       </c>
       <c r="F22">
-        <v>39.2204040202441</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>2.112260705120975</v>
+        <v>20.38594548141058</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.250810607395197</v>
       </c>
       <c r="I22">
-        <v>25.07367783640543</v>
+        <v>3.97265837271225</v>
       </c>
       <c r="J22">
-        <v>6.370177520780759</v>
+        <v>7.444725383289065</v>
       </c>
       <c r="K22">
-        <v>15.96702789829838</v>
+        <v>10.23657729664843</v>
       </c>
       <c r="L22">
-        <v>7.441920676822929</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>12.9995208115287</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>15.53855844195524</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>20.79283733514163</v>
+      </c>
+      <c r="P22">
+        <v>12.07556651566376</v>
+      </c>
+      <c r="Q22">
+        <v>12.28959218738253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.8604247270865</v>
+        <v>21.38841091357749</v>
       </c>
       <c r="C23">
-        <v>9.319226251521583</v>
+        <v>15.69929863639367</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>5.972947971330583</v>
+        <v>18.70886431456083</v>
       </c>
       <c r="F23">
-        <v>38.8407412627427</v>
+        <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>2.115545304283619</v>
+        <v>20.1267800718451</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3.17527291581982</v>
       </c>
       <c r="I23">
-        <v>24.9751155880198</v>
+        <v>3.921502534652668</v>
       </c>
       <c r="J23">
-        <v>6.393023131469763</v>
+        <v>7.43798233771845</v>
       </c>
       <c r="K23">
-        <v>15.64960441563053</v>
+        <v>10.28893644414757</v>
       </c>
       <c r="L23">
-        <v>7.384351226031378</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>12.85208649502279</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>15.61444300394081</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>20.44525694954973</v>
+      </c>
+      <c r="P23">
+        <v>12.07399023107015</v>
+      </c>
+      <c r="Q23">
+        <v>12.22293436152582</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.58968989203912</v>
+        <v>19.88937336539333</v>
       </c>
       <c r="C24">
-        <v>8.554360707921511</v>
+        <v>14.7771942053401</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>5.878273018045175</v>
+        <v>17.65790817515702</v>
       </c>
       <c r="F24">
-        <v>37.42926512954127</v>
+        <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>2.128118489636256</v>
+        <v>19.07859278193193</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.882238628970567</v>
       </c>
       <c r="I24">
-        <v>24.63536855432109</v>
+        <v>3.728392769483818</v>
       </c>
       <c r="J24">
-        <v>6.479144015279214</v>
+        <v>7.408281268640268</v>
       </c>
       <c r="K24">
-        <v>14.63424501397096</v>
+        <v>10.47404805168288</v>
       </c>
       <c r="L24">
-        <v>7.16871186361404</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>12.29219433491386</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>15.90977665077602</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>19.07329177792722</v>
+      </c>
+      <c r="P24">
+        <v>12.08239272041408</v>
+      </c>
+      <c r="Q24">
+        <v>11.95426357787019</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.15593008433045</v>
+        <v>18.12494156167328</v>
       </c>
       <c r="C25">
-        <v>7.676940172859764</v>
+        <v>13.7187563480225</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>5.781197218768019</v>
+        <v>16.45214465346226</v>
       </c>
       <c r="F25">
-        <v>35.96497979588826</v>
+        <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>2.142027603686081</v>
+        <v>17.94190457031435</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.552149012552608</v>
       </c>
       <c r="I25">
-        <v>24.33561651839972</v>
+        <v>3.513494822554876</v>
       </c>
       <c r="J25">
-        <v>6.571809174293203</v>
+        <v>7.389772433640883</v>
       </c>
       <c r="K25">
-        <v>13.51725550317605</v>
+        <v>10.6948872205265</v>
       </c>
       <c r="L25">
-        <v>6.94189163289529</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>11.68713930408037</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>16.24460511154009</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>17.47577211798642</v>
+      </c>
+      <c r="P25">
+        <v>12.10213138135991</v>
+      </c>
+      <c r="Q25">
+        <v>11.68804648448043</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_59/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.74005868427889</v>
+        <v>16.59181436969685</v>
       </c>
       <c r="C2">
-        <v>12.81776533635684</v>
+        <v>12.92848190369531</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>15.5074096533725</v>
+        <v>15.44904825514519</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>30.27884324296192</v>
       </c>
       <c r="G2">
-        <v>17.21280345669459</v>
+        <v>16.23253624050145</v>
       </c>
       <c r="H2">
-        <v>2.297636824960474</v>
+        <v>2.277273488841384</v>
       </c>
       <c r="I2">
-        <v>3.344601392491191</v>
+        <v>3.324195679155707</v>
       </c>
       <c r="J2">
-        <v>7.403397330438907</v>
+        <v>8.063283397626927</v>
       </c>
       <c r="K2">
-        <v>10.90846283246088</v>
+        <v>10.8202535389243</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.2607537105605</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>5.749846819302096</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.19977760024071</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>12.11344057367429</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>11.55526442115847</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>16.20185031538806</v>
+      </c>
+      <c r="R2">
+        <v>12.16191241117311</v>
+      </c>
+      <c r="S2">
+        <v>11.48410203498054</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.69967196908659</v>
+        <v>15.59320599042494</v>
       </c>
       <c r="C3">
-        <v>12.21310031262715</v>
+        <v>12.25057824573607</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.83019000234452</v>
+        <v>14.7820948648322</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>28.16301984326746</v>
       </c>
       <c r="G3">
-        <v>16.66240280962402</v>
+        <v>15.7262890497712</v>
       </c>
       <c r="H3">
-        <v>2.116380664872502</v>
+        <v>2.10132514805256</v>
       </c>
       <c r="I3">
-        <v>3.228242450268557</v>
+        <v>3.220794994736943</v>
       </c>
       <c r="J3">
-        <v>7.409444135128965</v>
+        <v>8.055720628938486</v>
       </c>
       <c r="K3">
-        <v>11.04250991003501</v>
+        <v>10.96262142817901</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10.43616524493642</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>5.809052671995524</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.27393329795903</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>12.13340864062401</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>11.45253526512961</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>15.27799923202592</v>
+      </c>
+      <c r="R3">
+        <v>12.16202734692157</v>
+      </c>
+      <c r="S3">
+        <v>11.40733683510386</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.02093614626768</v>
+        <v>14.94169466608922</v>
       </c>
       <c r="C4">
-        <v>11.82816322492472</v>
+        <v>11.81847863415879</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.39753310188877</v>
+        <v>14.35630078745858</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>16.32512119454496</v>
+        <v>15.41653855688107</v>
       </c>
       <c r="H4">
-        <v>2.000961981248958</v>
+        <v>1.989255289207547</v>
       </c>
       <c r="I4">
-        <v>3.15467817729883</v>
+        <v>3.155539436916047</v>
       </c>
       <c r="J4">
-        <v>7.415809020674796</v>
+        <v>8.052000926721881</v>
       </c>
       <c r="K4">
-        <v>11.12859609609587</v>
+        <v>11.05267592983311</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>10.5488547734983</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>5.867671026035909</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.67596931043312</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>12.1483234721419</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>11.39439798763642</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>14.68126138774029</v>
+      </c>
+      <c r="R4">
+        <v>12.16507277925015</v>
+      </c>
+      <c r="S4">
+        <v>11.36397705356191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.72937946053989</v>
+        <v>14.66164539650321</v>
       </c>
       <c r="C5">
-        <v>11.67579144197494</v>
+        <v>11.64656010656237</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.21677607080271</v>
+        <v>14.17849646746256</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>16.17602061640919</v>
+        <v>15.27834671986118</v>
       </c>
       <c r="H5">
-        <v>1.952743411922503</v>
+        <v>1.942428975873371</v>
       </c>
       <c r="I5">
-        <v>3.124482169045014</v>
+        <v>3.129062303422642</v>
       </c>
       <c r="J5">
-        <v>7.417317227420763</v>
+        <v>8.049034733107671</v>
       </c>
       <c r="K5">
-        <v>11.16100653779311</v>
+        <v>11.08652096696184</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>10.59249105100006</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>5.89552670816162</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.42499605330334</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>12.15617205635877</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>11.3672933985794</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>14.43079157942481</v>
+      </c>
+      <c r="R5">
+        <v>12.16819305206996</v>
+      </c>
+      <c r="S5">
+        <v>11.34263648535489</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.67431073662312</v>
+        <v>14.60852713070421</v>
       </c>
       <c r="C6">
-        <v>11.65986118380992</v>
+        <v>11.62759016412964</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.1860974966835</v>
+        <v>14.14833104016527</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>16.13659526317291</v>
+        <v>15.24029191417418</v>
       </c>
       <c r="H6">
-        <v>1.944508698786697</v>
+        <v>1.934432024400978</v>
       </c>
       <c r="I6">
-        <v>3.120007743744623</v>
+        <v>3.125545196675303</v>
       </c>
       <c r="J6">
-        <v>7.415485516311203</v>
+        <v>8.046504153842436</v>
       </c>
       <c r="K6">
-        <v>11.16205476338012</v>
+        <v>11.08790461377441</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>10.59550402766544</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>5.898654278542132</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.38287930931979</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>12.15888793273656</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>11.35719508790237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>14.38875996880973</v>
+      </c>
+      <c r="R6">
+        <v>12.1701616445435</v>
+      </c>
+      <c r="S6">
+        <v>11.33352863146667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.00088680411263</v>
+        <v>14.91640834990214</v>
       </c>
       <c r="C7">
-        <v>11.8518595737108</v>
+        <v>11.83382806262814</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.39399808381824</v>
+        <v>14.35465151497626</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>16.28339793931118</v>
+        <v>15.46920480600517</v>
       </c>
       <c r="H7">
-        <v>1.999875670052773</v>
+        <v>1.987839900559648</v>
       </c>
       <c r="I7">
-        <v>3.155567445328606</v>
+        <v>3.156834984476282</v>
       </c>
       <c r="J7">
-        <v>7.410041995298975</v>
+        <v>8.01090532163928</v>
       </c>
       <c r="K7">
-        <v>11.11702409514606</v>
+        <v>11.03745378729161</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>10.53404958879102</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>5.860571542745826</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.67259503326145</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>12.15224455984889</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>11.37858970697655</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>14.67481318097529</v>
+      </c>
+      <c r="R7">
+        <v>12.17059319044931</v>
+      </c>
+      <c r="S7">
+        <v>11.3383032289934</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.36981573375531</v>
+        <v>16.21898586426675</v>
       </c>
       <c r="C8">
-        <v>12.64450966786085</v>
+        <v>12.70388106715033</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>15.27614833991549</v>
+        <v>15.22713677575018</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>16.97250014337448</v>
+        <v>16.31136041228542</v>
       </c>
       <c r="H8">
-        <v>2.235442709605783</v>
+        <v>2.215790310090797</v>
       </c>
       <c r="I8">
-        <v>3.306342491805447</v>
+        <v>3.289848257455715</v>
       </c>
       <c r="J8">
-        <v>7.397305675589809</v>
+        <v>7.937721420995965</v>
       </c>
       <c r="K8">
-        <v>10.93793036281617</v>
+        <v>10.84030580515693</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.29523561025268</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>5.746895966922003</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.88670312592611</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>12.12510550535125</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>11.49865339474269</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>15.87992849843377</v>
+      </c>
+      <c r="R8">
+        <v>12.17236326189459</v>
+      </c>
+      <c r="S8">
+        <v>11.40382004937082</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.76288356056263</v>
+        <v>18.5140477745116</v>
       </c>
       <c r="C9">
-        <v>14.04351199606179</v>
+        <v>14.26741642632705</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.86927972121629</v>
+        <v>16.79875712289298</v>
       </c>
       <c r="F9">
         <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>18.38863425138521</v>
+        <v>17.67856545729936</v>
       </c>
       <c r="H9">
-        <v>2.66593164826245</v>
+        <v>2.633300398731031</v>
       </c>
       <c r="I9">
-        <v>3.584043114979008</v>
+        <v>3.535929426343027</v>
       </c>
       <c r="J9">
-        <v>7.404495573710509</v>
+        <v>7.937381960192104</v>
       </c>
       <c r="K9">
-        <v>10.63964079323441</v>
+        <v>10.51032259726215</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>9.89856332187029</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>5.726441696366604</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.02957511708379</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>12.08628288485468</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>11.80115498233856</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>18.0164285414875</v>
+      </c>
+      <c r="R9">
+        <v>12.18673879027299</v>
+      </c>
+      <c r="S9">
+        <v>11.62709392438093</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.32731892655886</v>
+        <v>19.99325805383556</v>
       </c>
       <c r="C10">
-        <v>14.99524999162149</v>
+        <v>15.2806237533278</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>17.44445030766392</v>
+        <v>17.36822783269805</v>
       </c>
       <c r="F10">
         <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>19.22998265093677</v>
+        <v>18.96718427722792</v>
       </c>
       <c r="H10">
-        <v>2.940651018208575</v>
+        <v>2.897525091132566</v>
       </c>
       <c r="I10">
-        <v>3.775789910934996</v>
+        <v>3.704722305734208</v>
       </c>
       <c r="J10">
-        <v>7.393869183818517</v>
+        <v>7.725723640071122</v>
       </c>
       <c r="K10">
-        <v>10.39644316008628</v>
+        <v>10.22127763086147</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.594493152060494</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>5.761376812031505</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.17254203941824</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>12.09939812263602</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>11.96910294408088</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>19.14088688453818</v>
+      </c>
+      <c r="R10">
+        <v>12.25114599100353</v>
+      </c>
+      <c r="S10">
+        <v>11.6825837945921</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.02994572123918</v>
+        <v>20.6507531289705</v>
       </c>
       <c r="C11">
-        <v>15.32807580646402</v>
+        <v>15.51422282444552</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.57760119226744</v>
+        <v>13.49022676525181</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>18.08575420537553</v>
+        <v>18.899449429775</v>
       </c>
       <c r="H11">
-        <v>3.519474889775516</v>
+        <v>3.480382754365063</v>
       </c>
       <c r="I11">
-        <v>3.834453741136022</v>
+        <v>3.754796443777076</v>
       </c>
       <c r="J11">
-        <v>7.143575340537716</v>
+        <v>7.167703037672819</v>
       </c>
       <c r="K11">
-        <v>9.940612503721193</v>
+        <v>9.77283798468754</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.285571404289101</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>5.444223449052847</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.24784608892312</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>12.35202401554504</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>11.4027325531039</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>17.18718834361568</v>
+      </c>
+      <c r="R11">
+        <v>12.54625675009951</v>
+      </c>
+      <c r="S11">
+        <v>11.02585644634757</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.32719973989621</v>
+        <v>20.94189486081864</v>
       </c>
       <c r="C12">
-        <v>15.38341087322655</v>
+        <v>15.49728376501108</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.69254029339533</v>
+        <v>10.57290272155557</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>16.97488534365823</v>
+        <v>18.31935932182899</v>
       </c>
       <c r="H12">
-        <v>4.57148494233572</v>
+        <v>4.541492137840064</v>
       </c>
       <c r="I12">
-        <v>3.845124152263839</v>
+        <v>3.762368199932691</v>
       </c>
       <c r="J12">
-        <v>6.939955631838286</v>
+        <v>6.896626259686871</v>
       </c>
       <c r="K12">
-        <v>9.634876466599275</v>
+        <v>9.500611411189293</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.125879427573274</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>5.193864844985486</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.37219790963879</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>12.57302752234281</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>10.90259760904971</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>15.29970869939465</v>
+      </c>
+      <c r="R12">
+        <v>12.78453541491903</v>
+      </c>
+      <c r="S12">
+        <v>10.51119140603108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.32183642342111</v>
+        <v>20.97062849260007</v>
       </c>
       <c r="C13">
-        <v>15.2627310905073</v>
+        <v>15.33743022461593</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.832198931911163</v>
+        <v>8.668494682616469</v>
       </c>
       <c r="F13">
         <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>15.74007702547776</v>
+        <v>17.02167600128128</v>
       </c>
       <c r="H13">
-        <v>5.778431785014565</v>
+        <v>5.756389353059202</v>
       </c>
       <c r="I13">
-        <v>3.822114689914861</v>
+        <v>3.742431877367635</v>
       </c>
       <c r="J13">
-        <v>6.7509486463745</v>
+        <v>6.821332728409511</v>
       </c>
       <c r="K13">
-        <v>9.410241026528544</v>
+        <v>9.33371024942717</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.044223240622438</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>4.97950879275368</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.36638004921664</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>12.78336047531185</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>10.39626562086198</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>13.29999565745726</v>
+      </c>
+      <c r="R13">
+        <v>12.98541476303749</v>
+      </c>
+      <c r="S13">
+        <v>10.06968529526269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.1776977828337</v>
+        <v>20.8686371397186</v>
       </c>
       <c r="C14">
-        <v>15.10409299121871</v>
+        <v>15.16525545889312</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.503179175276442</v>
+        <v>8.325263459157526</v>
       </c>
       <c r="F14">
         <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>14.79797165410454</v>
+        <v>15.77230698449021</v>
       </c>
       <c r="H14">
-        <v>6.675456442211315</v>
+        <v>6.657912427675683</v>
       </c>
       <c r="I14">
-        <v>3.791799289150632</v>
+        <v>3.717293431728011</v>
       </c>
       <c r="J14">
-        <v>6.624739855967121</v>
+        <v>6.83735470091705</v>
       </c>
       <c r="K14">
-        <v>9.291598920230182</v>
+        <v>9.261283130591565</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.015110171517023</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>4.849688226137716</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>11.88041383738826</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>12.92717288673089</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>10.0357207944903</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>11.82607944260536</v>
+      </c>
+      <c r="R14">
+        <v>13.10963460038838</v>
+      </c>
+      <c r="S14">
+        <v>9.787216480103705</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.07202838448347</v>
+        <v>20.78126146370499</v>
       </c>
       <c r="C15">
-        <v>15.03541576504411</v>
+        <v>15.09908128735962</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.571192983048546</v>
+        <v>8.396455596556736</v>
       </c>
       <c r="F15">
         <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>14.52936984529723</v>
+        <v>15.31622836696438</v>
       </c>
       <c r="H15">
-        <v>6.881423265064742</v>
+        <v>6.865073849522608</v>
       </c>
       <c r="I15">
-        <v>3.777649019609737</v>
+        <v>3.706178100461921</v>
       </c>
       <c r="J15">
-        <v>6.59595010721295</v>
+        <v>6.870897324349706</v>
       </c>
       <c r="K15">
-        <v>9.276284973520093</v>
+        <v>9.259925544481149</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.018005165631418</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>4.824217595196891</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>11.486892834951</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>12.95942759192793</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>9.943071913382816</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>11.43875859053685</v>
+      </c>
+      <c r="R15">
+        <v>13.13176793489512</v>
+      </c>
+      <c r="S15">
+        <v>9.727218478059067</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.42953970798994</v>
+        <v>20.2071622315631</v>
       </c>
       <c r="C16">
-        <v>14.67424455043115</v>
+        <v>14.78214522222948</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.547158843708013</v>
+        <v>8.396969722760488</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>14.32778828620641</v>
+        <v>14.19401396909065</v>
       </c>
       <c r="H16">
-        <v>6.618897410377475</v>
+        <v>6.60498762642874</v>
       </c>
       <c r="I16">
-        <v>3.70201969024565</v>
+        <v>3.643555442968956</v>
       </c>
       <c r="J16">
-        <v>6.635252317040628</v>
+        <v>7.162717746687743</v>
       </c>
       <c r="K16">
-        <v>9.424285207671547</v>
+        <v>9.430239086173001</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.127487753316352</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>4.901047413069497</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>11.26799505279624</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>12.89887033099231</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>9.956424765978051</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>11.24688040176803</v>
+      </c>
+      <c r="R16">
+        <v>13.0270915627946</v>
+      </c>
+      <c r="S16">
+        <v>9.85248862651974</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.00469598388066</v>
+        <v>19.80547653529416</v>
       </c>
       <c r="C17">
-        <v>14.48085203719848</v>
+        <v>14.61943316914875</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.521637286591503</v>
+        <v>8.382486671251014</v>
       </c>
       <c r="F17">
         <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>14.69313629176491</v>
+        <v>14.14874116606969</v>
       </c>
       <c r="H17">
-        <v>5.893053640638279</v>
+        <v>5.879008776165478</v>
       </c>
       <c r="I17">
-        <v>3.659923586843086</v>
+        <v>3.608266186850599</v>
       </c>
       <c r="J17">
-        <v>6.732301930331147</v>
+        <v>7.366255967483726</v>
       </c>
       <c r="K17">
-        <v>9.597628064500766</v>
+        <v>9.59801825104373</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.236964801137976</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>5.017920411857986</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>11.92480124488655</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>12.77743840523616</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>10.15982054512677</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>11.91478432423941</v>
+      </c>
+      <c r="R17">
+        <v>12.88782159951785</v>
+      </c>
+      <c r="S17">
+        <v>10.08907223550377</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.74055740797425</v>
+        <v>19.53644792613892</v>
       </c>
       <c r="C18">
-        <v>14.39687259365687</v>
+        <v>14.57302155204425</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.439355072452482</v>
+        <v>9.313949307689258</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>15.6091278908747</v>
+        <v>14.86531524952241</v>
       </c>
       <c r="H18">
-        <v>4.742622982897552</v>
+        <v>4.725532506159283</v>
       </c>
       <c r="I18">
-        <v>3.641525193783925</v>
+        <v>3.59147480027714</v>
       </c>
       <c r="J18">
-        <v>6.893597090501967</v>
+        <v>7.557735456284792</v>
       </c>
       <c r="K18">
-        <v>9.826934570832174</v>
+        <v>9.802218163636212</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.372017761282008</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>5.192574452964733</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.42252088801645</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>12.59145937650105</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>10.55887677912917</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>13.41622020534604</v>
+      </c>
+      <c r="R18">
+        <v>12.69788791219065</v>
+      </c>
+      <c r="S18">
+        <v>10.47849445668312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.60643693399347</v>
+        <v>19.37919457768376</v>
       </c>
       <c r="C19">
-        <v>14.45215331439796</v>
+        <v>14.67553627148892</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.97781726925144</v>
+        <v>11.87335843267713</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>16.82217579838492</v>
+        <v>15.9835734658693</v>
       </c>
       <c r="H19">
-        <v>3.533435072307293</v>
+        <v>3.508997979365237</v>
       </c>
       <c r="I19">
-        <v>3.651995449076799</v>
+        <v>3.601442525690114</v>
       </c>
       <c r="J19">
-        <v>7.086124487165028</v>
+        <v>7.737760300891776</v>
       </c>
       <c r="K19">
-        <v>10.07985184277988</v>
+        <v>10.01722713973703</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.514039319568109</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>5.395635993799985</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.47143312585717</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>12.38711851877532</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>11.06086950592241</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>15.4647295941774</v>
+      </c>
+      <c r="R19">
+        <v>12.49735432901163</v>
+      </c>
+      <c r="S19">
+        <v>10.94563788999286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.89057067964121</v>
+        <v>19.59367940178019</v>
       </c>
       <c r="C20">
-        <v>14.81679202714074</v>
+        <v>15.11314736589527</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>17.27053852235029</v>
+        <v>17.18996091141369</v>
       </c>
       <c r="F20">
         <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>18.89537541326214</v>
+        <v>18.22176559355741</v>
       </c>
       <c r="H20">
-        <v>2.86637671859322</v>
+        <v>2.827048046395074</v>
       </c>
       <c r="I20">
-        <v>3.732126175784083</v>
+        <v>3.671452659075523</v>
       </c>
       <c r="J20">
-        <v>7.37684629259391</v>
+        <v>7.881440232688797</v>
       </c>
       <c r="K20">
-        <v>10.41942832048672</v>
+        <v>10.274285282891</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.657813097910092</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>5.724149270839979</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.86708780325611</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>12.10994088048635</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>11.87471378229816</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>18.84895164879862</v>
+      </c>
+      <c r="R20">
+        <v>12.24195826087199</v>
+      </c>
+      <c r="S20">
+        <v>11.65368513946907</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.03149638046871</v>
+        <v>20.58905549338148</v>
       </c>
       <c r="C21">
-        <v>15.52745974255162</v>
+        <v>15.74717509100648</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>18.47016408311909</v>
+        <v>18.4195948740142</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>19.82789634393277</v>
+        <v>20.9962207357819</v>
       </c>
       <c r="H21">
-        <v>3.107996764710518</v>
+        <v>3.055184411593149</v>
       </c>
       <c r="I21">
-        <v>3.881246365425489</v>
+        <v>3.795350485693374</v>
       </c>
       <c r="J21">
-        <v>7.420217010222116</v>
+        <v>7.202594203588762</v>
       </c>
       <c r="K21">
-        <v>10.3083720038829</v>
+        <v>10.04006265703002</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.429869290767469</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>5.759629854262052</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.13677481139694</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>12.08332623339423</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>12.13407811240473</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>20.05973569029497</v>
+      </c>
+      <c r="R21">
+        <v>12.292329660046</v>
+      </c>
+      <c r="S21">
+        <v>11.63493899622238</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.76015659819869</v>
+        <v>21.22332447408435</v>
       </c>
       <c r="C22">
-        <v>15.94496002000064</v>
+        <v>16.10416510684776</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>18.97685820441929</v>
+        <v>18.94810425747158</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>20.38594548141058</v>
+        <v>22.83568867100781</v>
       </c>
       <c r="H22">
-        <v>3.250810607395197</v>
+        <v>3.189475059681351</v>
       </c>
       <c r="I22">
-        <v>3.97265837271225</v>
+        <v>3.869655236675115</v>
       </c>
       <c r="J22">
-        <v>7.444725383289065</v>
+        <v>6.801035319820893</v>
       </c>
       <c r="K22">
-        <v>10.23657729664843</v>
+        <v>9.880182393620441</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.285014376653061</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>5.787662404858661</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.79283733514163</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>12.07556651566376</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>12.28959218738253</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>20.67573620325529</v>
+      </c>
+      <c r="R22">
+        <v>12.33914447526092</v>
+      </c>
+      <c r="S22">
+        <v>11.5961507729883</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.38841091357749</v>
+        <v>20.91210834019511</v>
       </c>
       <c r="C23">
-        <v>15.69929863639367</v>
+        <v>15.9080845234671</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>18.70886431456083</v>
+        <v>18.66388078611241</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>20.1267800718451</v>
+        <v>21.68582899101913</v>
       </c>
       <c r="H23">
-        <v>3.17527291581982</v>
+        <v>3.119067201763639</v>
       </c>
       <c r="I23">
-        <v>3.921502534652668</v>
+        <v>3.827219515123226</v>
       </c>
       <c r="J23">
-        <v>7.43798233771845</v>
+        <v>7.073596841138964</v>
       </c>
       <c r="K23">
-        <v>10.28893644414757</v>
+        <v>9.988536190599454</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.373942873955295</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>5.796963482687876</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.44525694954973</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>12.07399023107015</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>12.22293436152582</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>20.35553886047733</v>
+      </c>
+      <c r="R23">
+        <v>12.30266825069439</v>
+      </c>
+      <c r="S23">
+        <v>11.65811902050564</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.88937336539333</v>
+        <v>19.59099550461078</v>
       </c>
       <c r="C24">
-        <v>14.7771942053401</v>
+        <v>15.07801240246905</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>17.65790817515702</v>
+        <v>17.57833821158661</v>
       </c>
       <c r="F24">
         <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>19.07859278193193</v>
+        <v>18.38403076897364</v>
       </c>
       <c r="H24">
-        <v>2.882238628970567</v>
+        <v>2.842809292175902</v>
       </c>
       <c r="I24">
-        <v>3.728392769483818</v>
+        <v>3.665783723108545</v>
       </c>
       <c r="J24">
-        <v>7.408281268640268</v>
+        <v>7.914948861522404</v>
       </c>
       <c r="K24">
-        <v>10.47404805168288</v>
+        <v>10.32304001476066</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9.690238397881366</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>5.76889614972675</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.07329177792722</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>12.08239272041408</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>11.95426357787019</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>19.05546134031916</v>
+      </c>
+      <c r="R24">
+        <v>12.21341941070812</v>
+      </c>
+      <c r="S24">
+        <v>11.73062884329886</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.12494156167328</v>
+        <v>17.90793143071107</v>
       </c>
       <c r="C25">
-        <v>13.7187563480225</v>
+        <v>13.91199651018561</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>16.45214465346226</v>
+        <v>16.38466281448843</v>
       </c>
       <c r="F25">
         <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>17.94190457031435</v>
+        <v>17.11973784943677</v>
       </c>
       <c r="H25">
-        <v>2.552149012552608</v>
+        <v>2.523434259112975</v>
       </c>
       <c r="I25">
-        <v>3.513494822554876</v>
+        <v>3.475872278508746</v>
       </c>
       <c r="J25">
-        <v>7.389772433640883</v>
+        <v>7.975874503990944</v>
       </c>
       <c r="K25">
-        <v>10.6948872205265</v>
+        <v>10.58244245115761</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>9.990824097890471</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>5.699289027982676</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.47577211798642</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>12.10213138135991</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>11.68804648448043</v>
+        <v>17.46812652370838</v>
+      </c>
+      <c r="R25">
+        <v>12.18576899023786</v>
+      </c>
+      <c r="S25">
+        <v>11.55080209119035</v>
       </c>
     </row>
   </sheetData>
